--- a/src/data/TDE5.xlsx
+++ b/src/data/TDE5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -21,18 +21,22 @@
     <sheet name="ATTRIBUTES" sheetId="18" r:id="rId7"/>
     <sheet name="ADVANTAGES" sheetId="8" r:id="rId8"/>
     <sheet name="DISADVANTAGES" sheetId="11" r:id="rId9"/>
-    <sheet name="SKILLS" sheetId="9" r:id="rId10"/>
-    <sheet name="COMBAT_TECHNIQUES" sheetId="10" r:id="rId11"/>
-    <sheet name="SPELLS" sheetId="12" r:id="rId12"/>
-    <sheet name="CANTRIPS" sheetId="28" r:id="rId13"/>
-    <sheet name="CHANTS" sheetId="13" r:id="rId14"/>
-    <sheet name="BLESSINGS" sheetId="29" r:id="rId15"/>
-    <sheet name="SPECIAL_ABILITIES" sheetId="14" r:id="rId16"/>
-    <sheet name="TradeSecr" sheetId="22" r:id="rId17"/>
-    <sheet name="Languages" sheetId="24" r:id="rId18"/>
-    <sheet name="Scripts" sheetId="23" r:id="rId19"/>
-    <sheet name="SpellX" sheetId="27" r:id="rId20"/>
-    <sheet name="EQUIPMENT" sheetId="15" r:id="rId21"/>
+    <sheet name="Principles" sheetId="31" r:id="rId10"/>
+    <sheet name="Obligations" sheetId="32" r:id="rId11"/>
+    <sheet name="SKILLS" sheetId="9" r:id="rId12"/>
+    <sheet name="COMBAT_TECHNIQUES" sheetId="10" r:id="rId13"/>
+    <sheet name="SPELLS" sheetId="12" r:id="rId14"/>
+    <sheet name="CANTRIPS" sheetId="28" r:id="rId15"/>
+    <sheet name="CHANTS" sheetId="13" r:id="rId16"/>
+    <sheet name="BLESSINGS" sheetId="29" r:id="rId17"/>
+    <sheet name="SPECIAL_ABILITIES" sheetId="14" r:id="rId18"/>
+    <sheet name="TradeSecr" sheetId="22" r:id="rId19"/>
+    <sheet name="Languages" sheetId="24" r:id="rId20"/>
+    <sheet name="Writing" sheetId="33" r:id="rId21"/>
+    <sheet name="Scripts" sheetId="23" r:id="rId22"/>
+    <sheet name="AnimalTrans" sheetId="34" r:id="rId23"/>
+    <sheet name="SpellX" sheetId="27" r:id="rId24"/>
+    <sheet name="EQUIPMENT" sheetId="15" r:id="rId25"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6213" uniqueCount="4316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6292" uniqueCount="4381">
   <si>
     <t>id</t>
   </si>
@@ -12992,13 +12996,208 @@
   </si>
   <si>
     <t>10?7&amp;12?5&amp;13?8&amp;19?6&amp;20?6&amp;21?6&amp;22?8&amp;23?5&amp;27?3&amp;34?3&amp;38?4&amp;39?4&amp;40?2&amp;46?3&amp;57?3</t>
+  </si>
+  <si>
+    <t>99 Gesetze</t>
+  </si>
+  <si>
+    <t>Moralkodex der Hesindekirche</t>
+  </si>
+  <si>
+    <t>Moralkodex der Phexkirche</t>
+  </si>
+  <si>
+    <t>Moralkodex der Perainekirche</t>
+  </si>
+  <si>
+    <t>99 Gesetze (streng)</t>
+  </si>
+  <si>
+    <t>Ehrenkodex der Krieger</t>
+  </si>
+  <si>
+    <t>Ehrenkodex der Ritter</t>
+  </si>
+  <si>
+    <t>Elfische Weltsicht</t>
+  </si>
+  <si>
+    <t>Moralkodex der Boronkirche</t>
+  </si>
+  <si>
+    <t>Moralkodex der Praioskirche</t>
+  </si>
+  <si>
+    <t>Moralkodex der Rondrakirche</t>
+  </si>
+  <si>
+    <t>Zwergischer Ehrenkodex</t>
+  </si>
+  <si>
+    <t>99 Gesetze (radikal)</t>
+  </si>
+  <si>
+    <t>Pazifismus</t>
+  </si>
+  <si>
+    <t>Sippenmitglied gegenüber der Sippe</t>
+  </si>
+  <si>
+    <t>Verschuldeter Held</t>
+  </si>
+  <si>
+    <t>Adliger gegenüber seinem Lehnsherrn</t>
+  </si>
+  <si>
+    <t>Geweihter gegenüber seiner Kirche</t>
+  </si>
+  <si>
+    <t>Geweihter gegenüber seinem Tempel</t>
+  </si>
+  <si>
+    <t>Magier gegenüber seinem Lehrmeister</t>
+  </si>
+  <si>
+    <t>Magier gegenüber seiner Akademie</t>
+  </si>
+  <si>
+    <t>Magier gegenüber seiner Gilde</t>
+  </si>
+  <si>
+    <t>Mitglied einer radikalen Sekte gegenüber den Anführern der Gruppe</t>
+  </si>
+  <si>
+    <t>TAL_18?4</t>
+  </si>
+  <si>
+    <t>TAL_16?4</t>
+  </si>
+  <si>
+    <t>TAL_15?4</t>
+  </si>
+  <si>
+    <t>TAL_19?4</t>
+  </si>
+  <si>
+    <t>TAL_21?4</t>
+  </si>
+  <si>
+    <t>TAL_31?4</t>
+  </si>
+  <si>
+    <t>TAL_32?4</t>
+  </si>
+  <si>
+    <t>TAL_33?4</t>
+  </si>
+  <si>
+    <t>TAL_34?4</t>
+  </si>
+  <si>
+    <t>TAL_35?4</t>
+  </si>
+  <si>
+    <t>TAL_36?4</t>
+  </si>
+  <si>
+    <t>TAL_37?4</t>
+  </si>
+  <si>
+    <t>TAL_38?4</t>
+  </si>
+  <si>
+    <t>TAL_39?4</t>
+  </si>
+  <si>
+    <t>TAL_40?4</t>
+  </si>
+  <si>
+    <t>TAL_41?4</t>
+  </si>
+  <si>
+    <t>TAL_42?4</t>
+  </si>
+  <si>
+    <t>talent</t>
+  </si>
+  <si>
+    <t>Liebesroman</t>
+  </si>
+  <si>
+    <t>Poesie</t>
+  </si>
+  <si>
+    <t>Hetzschriften</t>
+  </si>
+  <si>
+    <t>Kriminalgeschichten</t>
+  </si>
+  <si>
+    <t>Märchen</t>
+  </si>
+  <si>
+    <t>Romane</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Brett- &amp; Glücksspiel</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Geographie</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Geschichtswissen</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Götter &amp; Kulte</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Kriegskunst</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Magiekunde</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Mechanik</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Rechnen</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Rechtskunde</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Sagen &amp; Legenden</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Sphärenkunde</t>
+  </si>
+  <si>
+    <t>Fachpublikationen: Sternkunde</t>
+  </si>
+  <si>
+    <t>Chamäleon</t>
+  </si>
+  <si>
+    <t>Speikobra</t>
+  </si>
+  <si>
+    <t>Eichhörnchen</t>
+  </si>
+  <si>
+    <t>Bieber</t>
+  </si>
+  <si>
+    <t>Taube</t>
+  </si>
+  <si>
+    <t>Rabe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13052,6 +13251,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -13080,7 +13286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13159,12 +13365,116 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="193">
+  <dxfs count="215">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCE9178"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -14265,7 +14575,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="192"/>
+      <tableStyleElement type="headerRow" dxfId="214"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -15642,7 +15952,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212">
   <autoFilter ref="A1:B10">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15651,15 +15961,70 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="189"/>
-    <tableColumn id="2" name="name" dataDxfId="188"/>
+    <tableColumn id="1" name="id" dataDxfId="211"/>
+    <tableColumn id="2" name="name" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:E44" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:F60" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+  <autoFilter ref="A1:F60">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <sortState ref="A2:F60">
+    <sortCondition ref="A1:A60"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="id" dataDxfId="129"/>
+    <tableColumn id="2" name="name" dataDxfId="128"/>
+    <tableColumn id="3" name="check" dataDxfId="127"/>
+    <tableColumn id="4" name="skt" dataDxfId="126"/>
+    <tableColumn id="5" name="be" dataDxfId="125"/>
+    <tableColumn id="6" name="gr" dataDxfId="124"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:J234" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+  <autoFilter ref="A1:J234">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" name="id" dataDxfId="121"/>
+    <tableColumn id="2" name="name" dataDxfId="120"/>
+    <tableColumn id="3" name="check" dataDxfId="119"/>
+    <tableColumn id="9" name="mod" dataDxfId="118"/>
+    <tableColumn id="4" name="skt" dataDxfId="117"/>
+    <tableColumn id="7" name="trad" dataDxfId="116"/>
+    <tableColumn id="10" name="subtrad" dataDxfId="115"/>
+    <tableColumn id="5" name="merk" dataDxfId="114"/>
+    <tableColumn id="6" name="gr" dataDxfId="113"/>
+    <tableColumn id="8" name="req" dataDxfId="112"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:E44" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="A1:E44">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15668,18 +16033,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="87"/>
-    <tableColumn id="2" name="name" dataDxfId="86"/>
-    <tableColumn id="3" name="trad" dataDxfId="85"/>
-    <tableColumn id="4" name="merk" dataDxfId="84"/>
-    <tableColumn id="5" name="req" dataDxfId="83"/>
+    <tableColumn id="1" name="id" dataDxfId="109"/>
+    <tableColumn id="2" name="name" dataDxfId="108"/>
+    <tableColumn id="3" name="trad" dataDxfId="107"/>
+    <tableColumn id="4" name="merk" dataDxfId="106"/>
+    <tableColumn id="5" name="req" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:H193" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:H193" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
   <autoFilter ref="A1:H193">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15691,21 +16056,21 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="id" dataDxfId="80"/>
-    <tableColumn id="2" name="name" dataDxfId="79"/>
-    <tableColumn id="3" name="check" dataDxfId="78"/>
-    <tableColumn id="8" name="mod" dataDxfId="77"/>
-    <tableColumn id="4" name="skt" dataDxfId="76"/>
-    <tableColumn id="5" name="trad" dataDxfId="75"/>
-    <tableColumn id="6" name="aspc" dataDxfId="74"/>
-    <tableColumn id="7" name="gr" dataDxfId="73"/>
+    <tableColumn id="1" name="id" dataDxfId="102"/>
+    <tableColumn id="2" name="name" dataDxfId="101"/>
+    <tableColumn id="3" name="check" dataDxfId="100"/>
+    <tableColumn id="8" name="mod" dataDxfId="99"/>
+    <tableColumn id="4" name="skt" dataDxfId="98"/>
+    <tableColumn id="5" name="trad" dataDxfId="97"/>
+    <tableColumn id="6" name="aspc" dataDxfId="96"/>
+    <tableColumn id="7" name="gr" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1417" displayName="Table1417" ref="A1:E13" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1417" displayName="Table1417" ref="A1:E13" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A1:E13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15714,18 +16079,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="70"/>
-    <tableColumn id="2" name="name" dataDxfId="69"/>
-    <tableColumn id="3" name="trad" dataDxfId="68"/>
-    <tableColumn id="4" name="aspc" dataDxfId="67"/>
-    <tableColumn id="5" name="req" dataDxfId="66"/>
+    <tableColumn id="1" name="id" dataDxfId="92"/>
+    <tableColumn id="2" name="name" dataDxfId="91"/>
+    <tableColumn id="3" name="trad" dataDxfId="90"/>
+    <tableColumn id="4" name="aspc" dataDxfId="89"/>
+    <tableColumn id="5" name="req" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:H511" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:H511" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="A1:H511">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15737,21 +16102,21 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="id" dataDxfId="63"/>
-    <tableColumn id="2" name="name" dataDxfId="62"/>
-    <tableColumn id="3" name="ap" dataDxfId="61"/>
-    <tableColumn id="4" name="tiers" dataDxfId="60"/>
-    <tableColumn id="5" name="max" dataDxfId="59"/>
-    <tableColumn id="6" name="sel" dataDxfId="58"/>
-    <tableColumn id="8" name="req" dataDxfId="57"/>
-    <tableColumn id="9" name="gr" dataDxfId="56"/>
+    <tableColumn id="1" name="id" dataDxfId="85"/>
+    <tableColumn id="2" name="name" dataDxfId="84"/>
+    <tableColumn id="3" name="ap" dataDxfId="83"/>
+    <tableColumn id="4" name="tiers" dataDxfId="82"/>
+    <tableColumn id="5" name="max" dataDxfId="81"/>
+    <tableColumn id="6" name="sel" dataDxfId="80"/>
+    <tableColumn id="8" name="req" dataDxfId="79"/>
+    <tableColumn id="9" name="gr" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:E111" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:E111" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:E111">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15760,35 +16125,51 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="53"/>
-    <tableColumn id="2" name="name" dataDxfId="52"/>
-    <tableColumn id="3" name="req" dataDxfId="51"/>
-    <tableColumn id="4" name="cost" dataDxfId="50"/>
-    <tableColumn id="5" name="sec" dataDxfId="49"/>
+    <tableColumn id="1" name="id" dataDxfId="75"/>
+    <tableColumn id="2" name="name" dataDxfId="74"/>
+    <tableColumn id="3" name="req" dataDxfId="73"/>
+    <tableColumn id="4" name="cost" dataDxfId="72"/>
+    <tableColumn id="5" name="sec" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A1:D76">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="46"/>
-    <tableColumn id="2" name="name" dataDxfId="45"/>
-    <tableColumn id="5" name="cont" dataDxfId="44"/>
-    <tableColumn id="6" name="ext" dataDxfId="43"/>
+    <tableColumn id="1" name="id" dataDxfId="68"/>
+    <tableColumn id="2" name="name" dataDxfId="67"/>
+    <tableColumn id="5" name="cont" dataDxfId="66"/>
+    <tableColumn id="6" name="ext" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:F36" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabelle19212324" displayName="Tabelle19212324" ref="A1:C19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:C19">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="id" dataDxfId="4"/>
+    <tableColumn id="2" name="name" dataDxfId="3"/>
+    <tableColumn id="3" name="talent" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:F36" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:F36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15798,78 +16179,19 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="id" dataDxfId="40"/>
-    <tableColumn id="2" name="name" dataDxfId="39"/>
-    <tableColumn id="3" name="languages" dataDxfId="38"/>
-    <tableColumn id="4" name="cost" dataDxfId="37"/>
-    <tableColumn id="5" name="cont" dataDxfId="36"/>
-    <tableColumn id="6" name="ext" dataDxfId="35"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:F466" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" dataCellStyle="Excel Built-in Normal">
-  <autoFilter ref="A1:F466">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" name="id" dataDxfId="32"/>
-    <tableColumn id="2" name="name" dataDxfId="31" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="5" name="target" dataDxfId="30" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="6" name="tier" dataDxfId="29"/>
-    <tableColumn id="3" name="req" dataDxfId="28" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="4" name="cost" dataDxfId="27" dataCellStyle="Excel Built-in Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="A1:Y484" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:Y484"/>
-  <sortState ref="A2:Y484">
-    <sortCondition ref="A1:A484"/>
-  </sortState>
-  <tableColumns count="25">
-    <tableColumn id="1" name="id" dataDxfId="24"/>
-    <tableColumn id="2" name="name" dataDxfId="23"/>
-    <tableColumn id="3" name="price" dataDxfId="22"/>
-    <tableColumn id="4" name="weight" dataDxfId="21"/>
-    <tableColumn id="5" name="gr" dataDxfId="20"/>
-    <tableColumn id="6" name="ct" dataDxfId="19"/>
-    <tableColumn id="7" name="ddn" dataDxfId="18"/>
-    <tableColumn id="20" name="dds" dataDxfId="17"/>
-    <tableColumn id="8" name="df" dataDxfId="16"/>
-    <tableColumn id="9" name="db" dataDxfId="15"/>
-    <tableColumn id="10" name="at" dataDxfId="14"/>
-    <tableColumn id="11" name="pa" dataDxfId="13"/>
-    <tableColumn id="12" name="re" dataDxfId="12"/>
-    <tableColumn id="13" name="length" dataDxfId="11"/>
-    <tableColumn id="14" name="stp" dataDxfId="10"/>
-    <tableColumn id="21" name="range" dataDxfId="9"/>
-    <tableColumn id="15" name="rt" dataDxfId="8"/>
-    <tableColumn id="16" name="am" dataDxfId="7"/>
-    <tableColumn id="17" name="pro" dataDxfId="6"/>
-    <tableColumn id="18" name="enc" dataDxfId="5"/>
-    <tableColumn id="19" name="addp" dataDxfId="4"/>
-    <tableColumn id="25" name="armty" dataDxfId="3"/>
-    <tableColumn id="22" name="pryw" dataDxfId="2"/>
-    <tableColumn id="23" name="two" dataDxfId="1"/>
-    <tableColumn id="24" name="imp" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="62"/>
+    <tableColumn id="2" name="name" dataDxfId="61"/>
+    <tableColumn id="3" name="languages" dataDxfId="60"/>
+    <tableColumn id="4" name="cost" dataDxfId="59"/>
+    <tableColumn id="5" name="cont" dataDxfId="58"/>
+    <tableColumn id="6" name="ext" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:I8" totalsRowShown="0" headerRowDxfId="187" dataDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:I8" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
   <autoFilter ref="A1:I8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15882,22 +16204,101 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="id" dataDxfId="185"/>
-    <tableColumn id="2" name="name" dataDxfId="184"/>
-    <tableColumn id="3" name="ap" dataDxfId="183"/>
-    <tableColumn id="4" name="maxAttributeValue" dataDxfId="182"/>
-    <tableColumn id="5" name="maxSkillRating" dataDxfId="181"/>
-    <tableColumn id="6" name="maxCombatTechniqueRating" dataDxfId="180"/>
-    <tableColumn id="7" name="maxTotalAttributeValues" dataDxfId="179"/>
-    <tableColumn id="8" name="maxSpellsLiturgies" dataDxfId="178"/>
-    <tableColumn id="9" name="maxUnfamiliarSpells" dataDxfId="177"/>
+    <tableColumn id="1" name="id" dataDxfId="207"/>
+    <tableColumn id="2" name="name" dataDxfId="206"/>
+    <tableColumn id="3" name="ap" dataDxfId="205"/>
+    <tableColumn id="4" name="maxAttributeValue" dataDxfId="204"/>
+    <tableColumn id="5" name="maxSkillRating" dataDxfId="203"/>
+    <tableColumn id="6" name="maxCombatTechniqueRating" dataDxfId="202"/>
+    <tableColumn id="7" name="maxTotalAttributeValues" dataDxfId="201"/>
+    <tableColumn id="8" name="maxSpellsLiturgies" dataDxfId="200"/>
+    <tableColumn id="9" name="maxUnfamiliarSpells" dataDxfId="199"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle192123" displayName="Tabelle192123" ref="A1:E7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:E7">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" name="id" dataDxfId="9"/>
+    <tableColumn id="2" name="name" dataDxfId="7"/>
+    <tableColumn id="3" name="cost" dataDxfId="8"/>
+    <tableColumn id="4" name="gr" dataDxfId="1"/>
+    <tableColumn id="5" name="tier" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:F466" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" dataCellStyle="Excel Built-in Normal">
+  <autoFilter ref="A1:F466">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="id" dataDxfId="54"/>
+    <tableColumn id="2" name="name" dataDxfId="53" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="5" name="target" dataDxfId="52" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="6" name="tier" dataDxfId="51"/>
+    <tableColumn id="3" name="req" dataDxfId="50" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="4" name="cost" dataDxfId="49" dataCellStyle="Excel Built-in Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="A1:Y484" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <autoFilter ref="A1:Y484"/>
+  <sortState ref="A2:Y484">
+    <sortCondition ref="A1:A484"/>
+  </sortState>
+  <tableColumns count="25">
+    <tableColumn id="1" name="id" dataDxfId="46"/>
+    <tableColumn id="2" name="name" dataDxfId="45"/>
+    <tableColumn id="3" name="price" dataDxfId="44"/>
+    <tableColumn id="4" name="weight" dataDxfId="43"/>
+    <tableColumn id="5" name="gr" dataDxfId="42"/>
+    <tableColumn id="6" name="ct" dataDxfId="41"/>
+    <tableColumn id="7" name="ddn" dataDxfId="40"/>
+    <tableColumn id="20" name="dds" dataDxfId="39"/>
+    <tableColumn id="8" name="df" dataDxfId="38"/>
+    <tableColumn id="9" name="db" dataDxfId="37"/>
+    <tableColumn id="10" name="at" dataDxfId="36"/>
+    <tableColumn id="11" name="pa" dataDxfId="35"/>
+    <tableColumn id="12" name="re" dataDxfId="34"/>
+    <tableColumn id="13" name="length" dataDxfId="33"/>
+    <tableColumn id="14" name="stp" dataDxfId="32"/>
+    <tableColumn id="21" name="range" dataDxfId="31"/>
+    <tableColumn id="15" name="rt" dataDxfId="30"/>
+    <tableColumn id="16" name="am" dataDxfId="29"/>
+    <tableColumn id="17" name="pro" dataDxfId="28"/>
+    <tableColumn id="18" name="enc" dataDxfId="27"/>
+    <tableColumn id="19" name="addp" dataDxfId="26"/>
+    <tableColumn id="25" name="armty" dataDxfId="25"/>
+    <tableColumn id="22" name="pryw" dataDxfId="24"/>
+    <tableColumn id="23" name="two" dataDxfId="23"/>
+    <tableColumn id="24" name="imp" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle18" displayName="Tabelle18" ref="A1:N1048576" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle18" displayName="Tabelle18" ref="A1:N1048576" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197">
   <autoFilter ref="A1:N1048576">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15915,27 +16316,27 @@
     <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="id" dataDxfId="174"/>
-    <tableColumn id="2" name="name" dataDxfId="173"/>
-    <tableColumn id="3" name="ap" dataDxfId="172"/>
-    <tableColumn id="4" name="lang" dataDxfId="171"/>
-    <tableColumn id="5" name="literacy" dataDxfId="170"/>
-    <tableColumn id="6" name="social" dataDxfId="169"/>
-    <tableColumn id="7" name="typ_prof" dataDxfId="168"/>
-    <tableColumn id="8" name="typ_adv" dataDxfId="167"/>
-    <tableColumn id="9" name="typ_dadv" dataDxfId="166"/>
-    <tableColumn id="10" name="untyp_adv" dataDxfId="165"/>
-    <tableColumn id="11" name="untyp_dadv" dataDxfId="164"/>
-    <tableColumn id="12" name="typ_talents" dataDxfId="163"/>
-    <tableColumn id="13" name="untyp_talents" dataDxfId="162"/>
-    <tableColumn id="14" name="talents" dataDxfId="161"/>
+    <tableColumn id="1" name="id" dataDxfId="196"/>
+    <tableColumn id="2" name="name" dataDxfId="195"/>
+    <tableColumn id="3" name="ap" dataDxfId="194"/>
+    <tableColumn id="4" name="lang" dataDxfId="193"/>
+    <tableColumn id="5" name="literacy" dataDxfId="192"/>
+    <tableColumn id="6" name="social" dataDxfId="191"/>
+    <tableColumn id="7" name="typ_prof" dataDxfId="190"/>
+    <tableColumn id="8" name="typ_adv" dataDxfId="189"/>
+    <tableColumn id="9" name="typ_dadv" dataDxfId="188"/>
+    <tableColumn id="10" name="untyp_adv" dataDxfId="187"/>
+    <tableColumn id="11" name="untyp_dadv" dataDxfId="186"/>
+    <tableColumn id="12" name="typ_talents" dataDxfId="185"/>
+    <tableColumn id="13" name="untyp_talents" dataDxfId="184"/>
+    <tableColumn id="14" name="talents" dataDxfId="183"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:T95" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:T95" totalsRowShown="0" headerRowDxfId="182" dataDxfId="181">
   <autoFilter ref="A1:T95">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15959,33 +16360,33 @@
     <filterColumn colId="19" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="20">
-    <tableColumn id="1" name="id" dataDxfId="158"/>
-    <tableColumn id="2" name="name" dataDxfId="157"/>
-    <tableColumn id="3" name="ap" dataDxfId="156"/>
-    <tableColumn id="4" name="pre_req" dataDxfId="155"/>
-    <tableColumn id="5" name="req" dataDxfId="154"/>
-    <tableColumn id="6" name="sel" dataDxfId="153"/>
-    <tableColumn id="7" name="sa" dataDxfId="152"/>
-    <tableColumn id="8" name="combattech" dataDxfId="151"/>
-    <tableColumn id="9" name="talents" dataDxfId="150"/>
-    <tableColumn id="16" name="spells" dataDxfId="149"/>
-    <tableColumn id="17" name="chants" dataDxfId="148"/>
+    <tableColumn id="1" name="id" dataDxfId="180"/>
+    <tableColumn id="2" name="name" dataDxfId="179"/>
+    <tableColumn id="3" name="ap" dataDxfId="178"/>
+    <tableColumn id="4" name="pre_req" dataDxfId="177"/>
+    <tableColumn id="5" name="req" dataDxfId="176"/>
+    <tableColumn id="6" name="sel" dataDxfId="175"/>
+    <tableColumn id="7" name="sa" dataDxfId="174"/>
+    <tableColumn id="8" name="combattech" dataDxfId="173"/>
+    <tableColumn id="9" name="talents" dataDxfId="172"/>
+    <tableColumn id="16" name="spells" dataDxfId="171"/>
+    <tableColumn id="17" name="chants" dataDxfId="170"/>
     <tableColumn id="23" name="blessings"/>
-    <tableColumn id="10" name="typ_adv" dataDxfId="147"/>
-    <tableColumn id="11" name="typ_dadv" dataDxfId="146"/>
-    <tableColumn id="12" name="untyp_adv" dataDxfId="145"/>
-    <tableColumn id="13" name="untyp_dadv" dataDxfId="144"/>
-    <tableColumn id="14" name="vars" dataDxfId="143"/>
-    <tableColumn id="20" name="gr" dataDxfId="142"/>
-    <tableColumn id="24" name="sgr" dataDxfId="141"/>
-    <tableColumn id="21" name="src" dataDxfId="140"/>
+    <tableColumn id="10" name="typ_adv" dataDxfId="169"/>
+    <tableColumn id="11" name="typ_dadv" dataDxfId="168"/>
+    <tableColumn id="12" name="untyp_adv" dataDxfId="167"/>
+    <tableColumn id="13" name="untyp_dadv" dataDxfId="166"/>
+    <tableColumn id="14" name="vars" dataDxfId="165"/>
+    <tableColumn id="20" name="gr" dataDxfId="164"/>
+    <tableColumn id="24" name="sgr" dataDxfId="163"/>
+    <tableColumn id="21" name="src" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
   <autoFilter ref="A1:J1048576">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15999,23 +16400,23 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="137"/>
-    <tableColumn id="2" name="name" dataDxfId="136"/>
-    <tableColumn id="3" name="ap" dataDxfId="135"/>
-    <tableColumn id="4" name="pre_req" dataDxfId="134"/>
-    <tableColumn id="5" name="req" dataDxfId="133"/>
-    <tableColumn id="13" name="sel" dataDxfId="132"/>
-    <tableColumn id="6" name="sa" dataDxfId="131"/>
-    <tableColumn id="7" name="combattech" dataDxfId="130"/>
-    <tableColumn id="8" name="talents" dataDxfId="129"/>
-    <tableColumn id="9" name="spells" dataDxfId="128"/>
+    <tableColumn id="1" name="id" dataDxfId="159"/>
+    <tableColumn id="2" name="name" dataDxfId="158"/>
+    <tableColumn id="3" name="ap" dataDxfId="157"/>
+    <tableColumn id="4" name="pre_req" dataDxfId="156"/>
+    <tableColumn id="5" name="req" dataDxfId="155"/>
+    <tableColumn id="13" name="sel" dataDxfId="154"/>
+    <tableColumn id="6" name="sa" dataDxfId="153"/>
+    <tableColumn id="7" name="combattech" dataDxfId="152"/>
+    <tableColumn id="8" name="talents" dataDxfId="151"/>
+    <tableColumn id="9" name="spells" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A1:G76" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A1:G76" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="A1:G76">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -16026,20 +16427,20 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="125"/>
-    <tableColumn id="2" name="name" dataDxfId="124"/>
-    <tableColumn id="3" name="ap" dataDxfId="123"/>
-    <tableColumn id="4" name="tiers" dataDxfId="122"/>
-    <tableColumn id="5" name="max" dataDxfId="121"/>
-    <tableColumn id="6" name="sel" dataDxfId="120"/>
-    <tableColumn id="8" name="req" dataDxfId="119"/>
+    <tableColumn id="1" name="id" dataDxfId="147"/>
+    <tableColumn id="2" name="name" dataDxfId="146"/>
+    <tableColumn id="3" name="ap" dataDxfId="145"/>
+    <tableColumn id="4" name="tiers" dataDxfId="144"/>
+    <tableColumn id="5" name="max" dataDxfId="143"/>
+    <tableColumn id="6" name="sel" dataDxfId="142"/>
+    <tableColumn id="8" name="req" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G72" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G72" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139">
   <autoFilter ref="A1:G72">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -16050,70 +16451,47 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="116"/>
-    <tableColumn id="2" name="name" dataDxfId="115"/>
-    <tableColumn id="3" name="ap" dataDxfId="114"/>
-    <tableColumn id="4" name="tiers" dataDxfId="113"/>
-    <tableColumn id="5" name="max" dataDxfId="112"/>
-    <tableColumn id="6" name="sel" dataDxfId="111"/>
-    <tableColumn id="8" name="req" dataDxfId="110"/>
+    <tableColumn id="1" name="id" dataDxfId="138"/>
+    <tableColumn id="2" name="name" dataDxfId="137"/>
+    <tableColumn id="3" name="ap" dataDxfId="136"/>
+    <tableColumn id="4" name="tiers" dataDxfId="135"/>
+    <tableColumn id="5" name="max" dataDxfId="134"/>
+    <tableColumn id="6" name="sel" dataDxfId="133"/>
+    <tableColumn id="8" name="req" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:F60" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
-  <autoFilter ref="A1:F60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle19" displayName="Tabelle19" ref="A1:C15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:C15">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <sortState ref="A2:F60">
-    <sortCondition ref="A1:A60"/>
-  </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="id" dataDxfId="107"/>
-    <tableColumn id="2" name="name" dataDxfId="106"/>
-    <tableColumn id="3" name="check" dataDxfId="105"/>
-    <tableColumn id="4" name="skt" dataDxfId="104"/>
-    <tableColumn id="5" name="be" dataDxfId="103"/>
-    <tableColumn id="6" name="gr" dataDxfId="102"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="id" dataDxfId="21"/>
+    <tableColumn id="2" name="name" dataDxfId="20"/>
+    <tableColumn id="3" name="tier" dataDxfId="19"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:J234" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
-  <autoFilter ref="A1:J234">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle1921" displayName="Tabelle1921" ref="A1:C10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:C10">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="99"/>
-    <tableColumn id="2" name="name" dataDxfId="98"/>
-    <tableColumn id="3" name="check" dataDxfId="97"/>
-    <tableColumn id="9" name="mod" dataDxfId="96"/>
-    <tableColumn id="4" name="skt" dataDxfId="95"/>
-    <tableColumn id="7" name="trad" dataDxfId="94"/>
-    <tableColumn id="10" name="subtrad" dataDxfId="93"/>
-    <tableColumn id="5" name="merk" dataDxfId="92"/>
-    <tableColumn id="6" name="gr" dataDxfId="91"/>
-    <tableColumn id="8" name="req" dataDxfId="90"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="id" dataDxfId="14"/>
+    <tableColumn id="2" name="name" dataDxfId="12"/>
+    <tableColumn id="3" name="tier" dataDxfId="13"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -16518,6 +16896,328 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4331</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4332</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4333</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4334</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4335</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4336</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4337</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4338</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -17744,7 +18444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -18169,7 +18869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J234"/>
   <sheetViews>
@@ -23916,7 +24616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -24603,7 +25303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H193"/>
   <sheetViews>
@@ -29108,7 +29808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -29329,7 +30029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H511"/>
   <sheetViews>
@@ -39998,7 +40698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E111"/>
   <sheetViews>
@@ -41528,1570 +42228,6 @@
       <c r="D111" s="1">
         <v>2</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2005</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2006</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2007</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>2009</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>2013</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>2014</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>2016</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>2018</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>2019</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>2020</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>2021</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>2022</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>2023</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>2025</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>2027</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>2029</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>2030</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>2053</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>2031</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>2032</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>2033</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>2034</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>2036</v>
-      </c>
-      <c r="C60" s="1">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>2037</v>
-      </c>
-      <c r="C61" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>2038</v>
-      </c>
-      <c r="C62" s="1">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C63" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>2040</v>
-      </c>
-      <c r="C64" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>2041</v>
-      </c>
-      <c r="C65" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>2042</v>
-      </c>
-      <c r="C66" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>2043</v>
-      </c>
-      <c r="C67" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C68" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>2045</v>
-      </c>
-      <c r="C69" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>2046</v>
-      </c>
-      <c r="C70" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>2047</v>
-      </c>
-      <c r="C71" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>2048</v>
-      </c>
-      <c r="C72" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C73" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>2050</v>
-      </c>
-      <c r="C74" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>2051</v>
-      </c>
-      <c r="C75" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>2052</v>
-      </c>
-      <c r="C76" s="1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="24.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5.9296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2004</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="C6" s="1">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="C12" s="1">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="C13" s="1">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="C14" s="1">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="C15" s="1">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="C16" s="1">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="C17" s="1">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2054</v>
-      </c>
-      <c r="C18" s="1">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2055</v>
-      </c>
-      <c r="C19" s="1">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>2057</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C22" s="1">
-        <v>30</v>
-      </c>
-      <c r="D22" s="1">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>2059</v>
-      </c>
-      <c r="C23" s="1">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>2060</v>
-      </c>
-      <c r="C24" s="1">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2061</v>
-      </c>
-      <c r="C25" s="1">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>2062</v>
-      </c>
-      <c r="C26" s="1">
-        <v>39</v>
-      </c>
-      <c r="D26" s="1">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2063</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D27" s="1">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2064</v>
-      </c>
-      <c r="C28" s="1">
-        <v>52</v>
-      </c>
-      <c r="D28" s="1">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C29" s="1">
-        <v>58</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2066</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2067</v>
-      </c>
-      <c r="C31" s="1">
-        <v>71</v>
-      </c>
-      <c r="D31" s="1">
-        <v>6</v>
-      </c>
-      <c r="E31" s="1">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2068</v>
-      </c>
-      <c r="C32" s="1">
-        <v>60</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C33" s="1">
-        <v>61</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>2070</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>2071</v>
-      </c>
-      <c r="C35" s="1">
-        <v>67</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>2072</v>
-      </c>
-      <c r="C36" s="1">
-        <v>68</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -43360,6 +42496,1946 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4357</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>4359</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>4360</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>4363</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>4364</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>4365</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>4366</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>4367</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>4368</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>4369</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>4370</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>4373</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>4374</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="24.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C6" s="1">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C12" s="1">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C13" s="1">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C14" s="1">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C15" s="1">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C16" s="1">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C17" s="1">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C18" s="1">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C19" s="1">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C24" s="1">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C25" s="1">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C26" s="1">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C28" s="1">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C29" s="1">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C31" s="1">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C32" s="1">
+        <v>60</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C33" s="1">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C35" s="1">
+        <v>67</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C36" s="1">
+        <v>68</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>4376</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>4377</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>4378</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G466"/>
   <sheetViews>
     <sheetView topLeftCell="A447" workbookViewId="0">
@@ -51962,7 +53038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y484"/>
   <sheetViews>
@@ -66327,8 +67403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/src/data/TDE5.xlsx
+++ b/src/data/TDE5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6290" uniqueCount="4379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6303" uniqueCount="4379">
   <si>
     <t>id</t>
   </si>
@@ -65406,10 +65406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -65434,10 +65434,11 @@
     <col min="19" max="20" width="10.6640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="13.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.6640625" style="1"/>
+    <col min="23" max="23" width="13.265625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -65504,8 +65505,11 @@
       <c r="V1" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W1" s="5" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -65550,8 +65554,11 @@
       <c r="V2" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W2" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -65602,8 +65609,11 @@
       <c r="V3" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W3" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -65648,8 +65658,11 @@
       <c r="V4" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W4" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -65700,8 +65713,11 @@
       <c r="V5" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W5" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -65752,8 +65768,11 @@
       <c r="V6" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W6" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -65804,8 +65823,11 @@
       <c r="V7" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W7" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -65856,8 +65878,11 @@
       <c r="V8" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W8" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -65924,8 +65949,11 @@
       <c r="V9" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W9" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -65992,8 +66020,11 @@
       <c r="V10" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W10" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -66060,8 +66091,11 @@
       <c r="V11" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W11" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -66118,8 +66152,11 @@
       <c r="V12" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W12" s="22" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -66183,6 +66220,9 @@
       </c>
       <c r="V13" s="3" t="s">
         <v>301</v>
+      </c>
+      <c r="W13" s="22" t="s">
+        <v>2529</v>
       </c>
     </row>
   </sheetData>
@@ -66198,8 +66238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L2:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -67397,8 +67437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/src/data/TDE5.xlsx
+++ b/src/data/TDE5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="8" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6303" uniqueCount="4379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6587" uniqueCount="4657">
   <si>
     <t>id</t>
   </si>
@@ -13185,6 +13185,840 @@
   </si>
   <si>
     <t>{"id":"LANGUAGES_SCRIPTS","value":6}&amp;{"id":"SPECIALISATION","sid":"TAL_19"}&amp;{"id":"COMBAT_TECHNIQUES","value":4,"amount":1,"sid":[1,14]}</t>
+  </si>
+  <si>
+    <t>Zepter der Furcht</t>
+  </si>
+  <si>
+    <t>Schutz wider Schadensmagie</t>
+  </si>
+  <si>
+    <t>Bollwerk wider Zauberei</t>
+  </si>
+  <si>
+    <t>Licht des Götterfürsten</t>
+  </si>
+  <si>
+    <t>Wille zur Wahrheit</t>
+  </si>
+  <si>
+    <t>Bewahrung des Eids</t>
+  </si>
+  <si>
+    <t>Blitz-Schlag</t>
+  </si>
+  <si>
+    <t>Heftiger Angriff</t>
+  </si>
+  <si>
+    <t>Donner-Schlag</t>
+  </si>
+  <si>
+    <t>Schutz der Löwin</t>
+  </si>
+  <si>
+    <t>Beistand der Unbesiegten</t>
+  </si>
+  <si>
+    <t>Schutz wider Unheiliges</t>
+  </si>
+  <si>
+    <t>Flug des Dreizacks</t>
+  </si>
+  <si>
+    <t>Sprung mit dem Dreizack</t>
+  </si>
+  <si>
+    <t>Macht des Dreizacks</t>
+  </si>
+  <si>
+    <t>Kontrolle des Wassers</t>
+  </si>
+  <si>
+    <t>Kontrolle der Welle</t>
+  </si>
+  <si>
+    <t>Kontrolle des Strudels</t>
+  </si>
+  <si>
+    <t>Kleine Mahlzeit</t>
+  </si>
+  <si>
+    <t>Sättigende Mahlzeit</t>
+  </si>
+  <si>
+    <t>Kräftigende Mahlzeit</t>
+  </si>
+  <si>
+    <t>Band des Umsorgens</t>
+  </si>
+  <si>
+    <t>Brot der Erfrischung</t>
+  </si>
+  <si>
+    <t>Bund der Heilung</t>
+  </si>
+  <si>
+    <t>Hammer der Furcht</t>
+  </si>
+  <si>
+    <t>Hammer wider Verstorbene</t>
+  </si>
+  <si>
+    <t>Hammer des Schutzes</t>
+  </si>
+  <si>
+    <t>Fokus der Schattenwelt</t>
+  </si>
+  <si>
+    <t>Fokus der Verwirrung</t>
+  </si>
+  <si>
+    <t>Fokus der Seelnstärke</t>
+  </si>
+  <si>
+    <t>Wissenssammlung</t>
+  </si>
+  <si>
+    <t>Forschungsgebiet</t>
+  </si>
+  <si>
+    <t>Expertenwissen</t>
+  </si>
+  <si>
+    <t>Wall gegen Schadensmagie</t>
+  </si>
+  <si>
+    <t>Beistand gegen Einflusszauberei</t>
+  </si>
+  <si>
+    <t>Bollwerk gegen Magie</t>
+  </si>
+  <si>
+    <t>Messer des Frosts</t>
+  </si>
+  <si>
+    <t>Messer der Kälte</t>
+  </si>
+  <si>
+    <t>Messer des Eises</t>
+  </si>
+  <si>
+    <t>Klinge des Waidmanns</t>
+  </si>
+  <si>
+    <t>Klinge des Jägers</t>
+  </si>
+  <si>
+    <t>Klinge des Pirschers</t>
+  </si>
+  <si>
+    <t>Aura der Friedfertigkeit</t>
+  </si>
+  <si>
+    <t>Eidechsenhaut</t>
+  </si>
+  <si>
+    <t>Blütenregen</t>
+  </si>
+  <si>
+    <t>Licht des Prismas</t>
+  </si>
+  <si>
+    <t>Freiheit des Lichts</t>
+  </si>
+  <si>
+    <t>Freiheitsdrang</t>
+  </si>
+  <si>
+    <t>Licht des Madamals</t>
+  </si>
+  <si>
+    <t>Lautlos wie ein Schatten</t>
+  </si>
+  <si>
+    <t>Glück des Fuchses</t>
+  </si>
+  <si>
+    <t>Gespür für Geld</t>
+  </si>
+  <si>
+    <t>Ehrliche Geschäfte</t>
+  </si>
+  <si>
+    <t>Sinn für den Wert</t>
+  </si>
+  <si>
+    <t>Seuchenhandschuh</t>
+  </si>
+  <si>
+    <t>Genesungshandschuh</t>
+  </si>
+  <si>
+    <t>Heilerhandschuh</t>
+  </si>
+  <si>
+    <t>Pflanzenkonservierung</t>
+  </si>
+  <si>
+    <t>Pflanzensuche</t>
+  </si>
+  <si>
+    <t>Pflanzenerkennung</t>
+  </si>
+  <si>
+    <t>Werkzeug der Beständigkeit</t>
+  </si>
+  <si>
+    <t>Schlag der Zerstörung</t>
+  </si>
+  <si>
+    <t>Hammer der Schwere</t>
+  </si>
+  <si>
+    <t>Brandschutz</t>
+  </si>
+  <si>
+    <t>Erdbeben-Schlag</t>
+  </si>
+  <si>
+    <t>Glut des Hammers</t>
+  </si>
+  <si>
+    <t>Schleier der Fesselung</t>
+  </si>
+  <si>
+    <t>Schleier der Unempfindlichkeit</t>
+  </si>
+  <si>
+    <t>Schleier der Träume</t>
+  </si>
+  <si>
+    <t>Schleier der Reinheit</t>
+  </si>
+  <si>
+    <t>Schleier der Verführung</t>
+  </si>
+  <si>
+    <t>Schleier des Begehrens</t>
+  </si>
+  <si>
+    <t>Weg des Stabträgers</t>
+  </si>
+  <si>
+    <t>Gegenwehr des Stabträgers</t>
+  </si>
+  <si>
+    <t>Glückskind</t>
+  </si>
+  <si>
+    <t>Sicherer Schritt des Stabträgers</t>
+  </si>
+  <si>
+    <t>Macht des Schicksals</t>
+  </si>
+  <si>
+    <t>Zeichen der Vorhersehung</t>
+  </si>
+  <si>
+    <t>Warmer Mantel</t>
+  </si>
+  <si>
+    <t>Schutz gegen Kälte</t>
+  </si>
+  <si>
+    <t>Erholsamer Schlaf</t>
+  </si>
+  <si>
+    <t>Haltbare Trophäen</t>
+  </si>
+  <si>
+    <t>Jägermantel</t>
+  </si>
+  <si>
+    <t>Tierfreundschaft</t>
+  </si>
+  <si>
+    <t>Mantikorstich</t>
+  </si>
+  <si>
+    <t>Blutende Wunde</t>
+  </si>
+  <si>
+    <t>Verteidgungslücke</t>
+  </si>
+  <si>
+    <t>Schmerzhafter Hieb</t>
+  </si>
+  <si>
+    <t>Kampfesmut</t>
+  </si>
+  <si>
+    <t>Wissensdurst</t>
+  </si>
+  <si>
+    <t>Zweiter Anlauf</t>
+  </si>
+  <si>
+    <t>Recherchegespür</t>
+  </si>
+  <si>
+    <t>Meisterhafter Lehrmeister</t>
+  </si>
+  <si>
+    <t>Inspirierender Unterricht</t>
+  </si>
+  <si>
+    <t>Weisheit des Lehrers</t>
+  </si>
+  <si>
+    <t>Wall der Schilde</t>
+  </si>
+  <si>
+    <t>Schildmeer</t>
+  </si>
+  <si>
+    <t>Wall der Angst</t>
+  </si>
+  <si>
+    <t>Flukenschlag</t>
+  </si>
+  <si>
+    <t>Hass des Grünwals</t>
+  </si>
+  <si>
+    <t>Kraftvoller Vorstoß</t>
+  </si>
+  <si>
+    <t>Predigt der Gemeinschaft</t>
+  </si>
+  <si>
+    <t>Predigt der Zuversicht</t>
+  </si>
+  <si>
+    <t>Predigt des Gottvertrauens</t>
+  </si>
+  <si>
+    <t>Predigt des Wohlgefallens</t>
+  </si>
+  <si>
+    <t>Predigt wider Missgeschicke</t>
+  </si>
+  <si>
+    <t>Vision der Bestimmung</t>
+  </si>
+  <si>
+    <t>Vision der Entrückung</t>
+  </si>
+  <si>
+    <t>Vision der Gottheit</t>
+  </si>
+  <si>
+    <t>Vision des Schicksals</t>
+  </si>
+  <si>
+    <t>Vision des Wahren Glaubens</t>
+  </si>
+  <si>
+    <t>Abgeschwächte Liturgie</t>
+  </si>
+  <si>
+    <t>Daimonidenschreck</t>
+  </si>
+  <si>
+    <t>Entrückungsmeditation</t>
+  </si>
+  <si>
+    <t>Extrem starke Segnungen</t>
+  </si>
+  <si>
+    <t>Extrem starker Segnungsbruch</t>
+  </si>
+  <si>
+    <t>Furcht nehmen</t>
+  </si>
+  <si>
+    <t>Gefestigter Zeremonieablauf</t>
+  </si>
+  <si>
+    <t>Göttlicher Schutz</t>
+  </si>
+  <si>
+    <t>Hauptsegnung</t>
+  </si>
+  <si>
+    <t>BLESSINGS</t>
+  </si>
+  <si>
+    <t>Hohe Weihe I</t>
+  </si>
+  <si>
+    <t>Hohe Weihe II</t>
+  </si>
+  <si>
+    <t>Hohe Weihe III</t>
+  </si>
+  <si>
+    <t>Improvisierte Liturgie (Gebet)</t>
+  </si>
+  <si>
+    <t>Improvisierte Liturgie (Gesten)</t>
+  </si>
+  <si>
+    <t>Karmale Regeneration I</t>
+  </si>
+  <si>
+    <t>Karmale Regeneration II</t>
+  </si>
+  <si>
+    <t>Klarer Blick</t>
+  </si>
+  <si>
+    <t>Kontrolle des Karmalkörpers</t>
+  </si>
+  <si>
+    <t>Lieblingsliturgie</t>
+  </si>
+  <si>
+    <t>LITURGIES</t>
+  </si>
+  <si>
+    <t>Liturgie abbrechen</t>
+  </si>
+  <si>
+    <t>Mächtige Kontrolle des Karmalkörpers</t>
+  </si>
+  <si>
+    <t>Mauer des Geistes</t>
+  </si>
+  <si>
+    <t>Mirakelmacht</t>
+  </si>
+  <si>
+    <t>Routinierte Liturgiewiederholung</t>
+  </si>
+  <si>
+    <t>Schild des Glaubens</t>
+  </si>
+  <si>
+    <t>Segnungsbruch</t>
+  </si>
+  <si>
+    <t>Stabile Regeneration</t>
+  </si>
+  <si>
+    <t>Starker Segnungsbruch</t>
+  </si>
+  <si>
+    <t>Wahre Stärke des Glaubens</t>
+  </si>
+  <si>
+    <t>Wahrer Glaube</t>
+  </si>
+  <si>
+    <t>Zeremonialgegenstand herstellen</t>
+  </si>
+  <si>
+    <t>Zurück in die Niederhöllen</t>
+  </si>
+  <si>
+    <t>Zwei Segnungen gleichzeitig</t>
+  </si>
+  <si>
+    <t>Gespür für das Böse</t>
+  </si>
+  <si>
+    <t>Zeichen des Schicksals</t>
+  </si>
+  <si>
+    <t>Apricarier</t>
+  </si>
+  <si>
+    <t>Braniborier</t>
+  </si>
+  <si>
+    <t>Vigilanten</t>
+  </si>
+  <si>
+    <t>Flusswächter</t>
+  </si>
+  <si>
+    <t>Küstenwächter</t>
+  </si>
+  <si>
+    <t>Meereswächter</t>
+  </si>
+  <si>
+    <t>Graugänse</t>
+  </si>
+  <si>
+    <t>Hausgänse</t>
+  </si>
+  <si>
+    <t>Wildgänse</t>
+  </si>
+  <si>
+    <t>Deuter der Träume</t>
+  </si>
+  <si>
+    <t>Propheten des Todes</t>
+  </si>
+  <si>
+    <t>Seher der Seele</t>
+  </si>
+  <si>
+    <t>Freidenker</t>
+  </si>
+  <si>
+    <t>Waldläufer</t>
+  </si>
+  <si>
+    <t>Wanderer</t>
+  </si>
+  <si>
+    <t>Wildhüter</t>
+  </si>
+  <si>
+    <t>Bilderstürmer</t>
+  </si>
+  <si>
+    <t>Friedensfreunde</t>
+  </si>
+  <si>
+    <t>Wiedergeborene</t>
+  </si>
+  <si>
+    <t>Diebe des Nachthimmels</t>
+  </si>
+  <si>
+    <t>Händler des Listenreichen</t>
+  </si>
+  <si>
+    <t>Spitzel des Fuchses</t>
+  </si>
+  <si>
+    <t>Säer der Gütigen</t>
+  </si>
+  <si>
+    <t>Heiler der Gütigen</t>
+  </si>
+  <si>
+    <t>Helfer der Gütigen</t>
+  </si>
+  <si>
+    <t>Anhänger des roten Gottes</t>
+  </si>
+  <si>
+    <t>Jünger des Handwerks</t>
+  </si>
+  <si>
+    <t>Kultisten des Ingra</t>
+  </si>
+  <si>
+    <t>Harmonisten</t>
+  </si>
+  <si>
+    <t>Levthansfreunde</t>
+  </si>
+  <si>
+    <t>Radscha-Anhänger</t>
+  </si>
+  <si>
+    <t>Seher des verborgenen Pfades</t>
+  </si>
+  <si>
+    <t>Zugvögel</t>
+  </si>
+  <si>
+    <t>Hüterinnen der Schwänin</t>
+  </si>
+  <si>
+    <t>Jägerinnen der weißen Maid</t>
+  </si>
+  <si>
+    <t>Anhänger des guten Kampfes</t>
+  </si>
+  <si>
+    <t>Kamerad des guten Goldes</t>
+  </si>
+  <si>
+    <t>Lehrer der Einsicht</t>
+  </si>
+  <si>
+    <t>Sucher der Erkenntnis</t>
+  </si>
+  <si>
+    <t>Hüter der Walwütigen</t>
+  </si>
+  <si>
+    <t>Jäger der Seeschlangen</t>
+  </si>
+  <si>
+    <t>Anhänger des Güldenen</t>
+  </si>
+  <si>
+    <t>Kinder der Ratte</t>
+  </si>
+  <si>
+    <t>Naaghot-Shaar-Kultisten</t>
+  </si>
+  <si>
+    <t>Aufbegehren</t>
+  </si>
+  <si>
+    <t>Einschüchternde Zurechtweisung</t>
+  </si>
+  <si>
+    <t>Erforscher des Rausches</t>
+  </si>
+  <si>
+    <t>Erzwungene Liturgie</t>
+  </si>
+  <si>
+    <t>Gebieter der Antimagie</t>
+  </si>
+  <si>
+    <t>Gebieter der Ordnung</t>
+  </si>
+  <si>
+    <t>Gebieter der Magie</t>
+  </si>
+  <si>
+    <t>Gebieter der Heilung</t>
+  </si>
+  <si>
+    <t>Gebieter der Landwirtschaft</t>
+  </si>
+  <si>
+    <t>Gebieter der Wogen</t>
+  </si>
+  <si>
+    <t>Gebieter der Freundschaft</t>
+  </si>
+  <si>
+    <t>Gebieter der Jagd</t>
+  </si>
+  <si>
+    <t>Gebieter der Kälte</t>
+  </si>
+  <si>
+    <t>Gebieter der Freiheit</t>
+  </si>
+  <si>
+    <t>Gebieter der Ekstase</t>
+  </si>
+  <si>
+    <t>Gebieter der Harmonie</t>
+  </si>
+  <si>
+    <t>Gebieter der Reise</t>
+  </si>
+  <si>
+    <t>Gebieter der Hilfsbereitschaft</t>
+  </si>
+  <si>
+    <t>Gebieter der Natur</t>
+  </si>
+  <si>
+    <t>Gebieter der Bildung</t>
+  </si>
+  <si>
+    <t>Gebieter der Erkenntnis</t>
+  </si>
+  <si>
+    <t>Gebieter der Kraft</t>
+  </si>
+  <si>
+    <t>Gebieter der Tapferkeit</t>
+  </si>
+  <si>
+    <t>Gebieter des Schilds</t>
+  </si>
+  <si>
+    <t>Gebieter des Sturms</t>
+  </si>
+  <si>
+    <t>Gebieter des Todes</t>
+  </si>
+  <si>
+    <t>Gebieter der Träume</t>
+  </si>
+  <si>
+    <t>Gebieter des Wissens</t>
+  </si>
+  <si>
+    <t>Gebieter des Handels</t>
+  </si>
+  <si>
+    <t>Gebieter der Schatten</t>
+  </si>
+  <si>
+    <t>Gebieter des Winds</t>
+  </si>
+  <si>
+    <t>Gebieter des Heims</t>
+  </si>
+  <si>
+    <t>Gebieter des Wandels</t>
+  </si>
+  <si>
+    <t>Gebieter des Feuers</t>
+  </si>
+  <si>
+    <t>Gebieter des Handwerks</t>
+  </si>
+  <si>
+    <t>Gebieter des Schicksals</t>
+  </si>
+  <si>
+    <t>Gebieter des guten Kampfes</t>
+  </si>
+  <si>
+    <t>Gebieter des guten Goldes</t>
+  </si>
+  <si>
+    <t>Geistkontrolle</t>
+  </si>
+  <si>
+    <t>Gesunder Geist, gesunder Körper</t>
+  </si>
+  <si>
+    <t>Geteilte Freude</t>
+  </si>
+  <si>
+    <t>Giftkenntnis</t>
+  </si>
+  <si>
+    <t>Guter Handel</t>
+  </si>
+  <si>
+    <t>Handwerksgespür</t>
+  </si>
+  <si>
+    <t>Harmonie der Seele</t>
+  </si>
+  <si>
+    <t>Hitzegewöhnung</t>
+  </si>
+  <si>
+    <t>Kältegewöhnung</t>
+  </si>
+  <si>
+    <t>Krankheitskenntnis</t>
+  </si>
+  <si>
+    <t>Langanhaltender Segen</t>
+  </si>
+  <si>
+    <t>Missionierung</t>
+  </si>
+  <si>
+    <t>Omen</t>
+  </si>
+  <si>
+    <t>Schutz der Unsterblichen</t>
+  </si>
+  <si>
+    <t>Stille Andacht</t>
+  </si>
+  <si>
+    <t>Stille Meditation</t>
+  </si>
+  <si>
+    <t>Stilles Gebet</t>
+  </si>
+  <si>
+    <t>Tapferkeit der Unsterblichen</t>
+  </si>
+  <si>
+    <t>Verbesserte Fokussierung</t>
+  </si>
+  <si>
+    <t>Wohlklang der Seele</t>
+  </si>
+  <si>
+    <t>Amazonen-Stil</t>
+  </si>
+  <si>
+    <t>Golgariten-Stil</t>
+  </si>
+  <si>
+    <t>Mantikor-Stil</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge I</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge II</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge III</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge IV</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge V</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge VI</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge VII</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge VIII</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge IX</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge X</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge XI</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge XII</t>
+  </si>
+  <si>
+    <t>Macht der Namenlosen Klinge XIII</t>
+  </si>
+  <si>
+    <t>{"id":"SA_102","active":true,"sid":1}&amp;{"id":"SA_511","active":false}</t>
+  </si>
+  <si>
+    <t>{"id":"SA_102","active":true,"sid":1}&amp;{"id":"SA_514","active":false}</t>
+  </si>
+  <si>
+    <t>{"id":"SA_511","active":true}&amp;{"id":"SA_513","active":false}</t>
+  </si>
+  <si>
+    <t>{"id":"SA_511","active":true}&amp;{"id":"SA_512","active":false}</t>
+  </si>
+  <si>
+    <t>{"id":"SA_514","active":true}&amp;{"id":"SA_516","active":false}</t>
+  </si>
+  <si>
+    <t>{"id":"SA_514","active":true}&amp;{"id":"SA_515","active":false}</t>
+  </si>
+  <si>
+    <t>{"id":"SA_102","active":true,"sid":2}&amp;{"id":"SA_520","active":false}</t>
+  </si>
+  <si>
+    <t>{"id":"SA_102","active":true,"sid":2}&amp;{"id":"SA_517","active":false}</t>
+  </si>
+  <si>
+    <t>{"id":"SA_517","active":true}&amp;{"id":"SA_519","active":false}</t>
+  </si>
+  <si>
+    <t>{"id":"SA_517","active":true}&amp;{"id":"SA_518","active":false}</t>
+  </si>
+  <si>
+    <t>{"id":"SA_520","active":true}&amp;{"id":"SA_522","active":false}</t>
+  </si>
+  <si>
+    <t>{"id":"SA_520","active":true}&amp;{"id":"SA_521","active":false}</t>
   </si>
 </sst>
 </file>
@@ -16084,8 +16918,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:H511" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
-  <autoFilter ref="A1:H511">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:H781" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+  <autoFilter ref="A1:H781">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -30025,10 +30859,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H511"/>
+  <dimension ref="A1:H781"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="F522" sqref="F522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40681,6 +41515,3867 @@
       </c>
       <c r="H511" s="1">
         <v>22</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A512" s="1">
+        <v>511</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C512" s="1">
+        <v>12</v>
+      </c>
+      <c r="E512" s="1">
+        <v>1</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="H512" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A513" s="23">
+        <v>512</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C513" s="1">
+        <v>10</v>
+      </c>
+      <c r="E513" s="1">
+        <v>1</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>4647</v>
+      </c>
+      <c r="H513" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A514" s="1">
+        <v>513</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>4381</v>
+      </c>
+      <c r="C514" s="1">
+        <v>15</v>
+      </c>
+      <c r="E514" s="1">
+        <v>1</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>4648</v>
+      </c>
+      <c r="H514" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A515" s="1">
+        <v>514</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C515" s="1">
+        <v>5</v>
+      </c>
+      <c r="E515" s="1">
+        <v>1</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="H515" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A516" s="23">
+        <v>515</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>4383</v>
+      </c>
+      <c r="C516" s="1">
+        <v>12</v>
+      </c>
+      <c r="E516" s="1">
+        <v>1</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>4649</v>
+      </c>
+      <c r="H516" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A517" s="1">
+        <v>516</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C517" s="1">
+        <v>8</v>
+      </c>
+      <c r="E517" s="1">
+        <v>1</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>4650</v>
+      </c>
+      <c r="H517" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A518" s="1">
+        <v>517</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>4385</v>
+      </c>
+      <c r="C518" s="1">
+        <v>15</v>
+      </c>
+      <c r="E518" s="1">
+        <v>1</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>4651</v>
+      </c>
+      <c r="H518" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A519" s="23">
+        <v>518</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>4386</v>
+      </c>
+      <c r="C519" s="1">
+        <v>25</v>
+      </c>
+      <c r="E519" s="1">
+        <v>1</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>4653</v>
+      </c>
+      <c r="H519" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A520" s="1">
+        <v>519</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>4387</v>
+      </c>
+      <c r="C520" s="1">
+        <v>20</v>
+      </c>
+      <c r="E520" s="1">
+        <v>1</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>4654</v>
+      </c>
+      <c r="H520" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A521" s="1">
+        <v>520</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C521" s="1">
+        <v>8</v>
+      </c>
+      <c r="E521" s="1">
+        <v>1</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>4652</v>
+      </c>
+      <c r="H521" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A522" s="23">
+        <v>521</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>4389</v>
+      </c>
+      <c r="C522" s="1">
+        <v>20</v>
+      </c>
+      <c r="E522" s="1">
+        <v>1</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>4655</v>
+      </c>
+      <c r="H522" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A523" s="1">
+        <v>522</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>4390</v>
+      </c>
+      <c r="C523" s="1">
+        <v>12</v>
+      </c>
+      <c r="E523" s="1">
+        <v>1</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>4656</v>
+      </c>
+      <c r="H523" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A524" s="1">
+        <v>523</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>4391</v>
+      </c>
+      <c r="E524" s="1">
+        <v>1</v>
+      </c>
+      <c r="H524" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A525" s="23">
+        <v>524</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="E525" s="1">
+        <v>1</v>
+      </c>
+      <c r="H525" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>4393</v>
+      </c>
+      <c r="E526" s="1">
+        <v>1</v>
+      </c>
+      <c r="H526" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>4394</v>
+      </c>
+      <c r="E527" s="1">
+        <v>1</v>
+      </c>
+      <c r="H527" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A528" s="23">
+        <v>527</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>4395</v>
+      </c>
+      <c r="E528" s="1">
+        <v>1</v>
+      </c>
+      <c r="H528" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>4396</v>
+      </c>
+      <c r="E529" s="1">
+        <v>1</v>
+      </c>
+      <c r="H529" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A530" s="1">
+        <v>529</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>4397</v>
+      </c>
+      <c r="E530" s="1">
+        <v>1</v>
+      </c>
+      <c r="H530" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A531" s="23">
+        <v>530</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>4398</v>
+      </c>
+      <c r="E531" s="1">
+        <v>1</v>
+      </c>
+      <c r="H531" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A532" s="1">
+        <v>531</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E532" s="1">
+        <v>1</v>
+      </c>
+      <c r="H532" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A533" s="1">
+        <v>532</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>4400</v>
+      </c>
+      <c r="E533" s="1">
+        <v>1</v>
+      </c>
+      <c r="H533" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A534" s="23">
+        <v>533</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="E534" s="1">
+        <v>1</v>
+      </c>
+      <c r="H534" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A535" s="1">
+        <v>534</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>4402</v>
+      </c>
+      <c r="E535" s="1">
+        <v>1</v>
+      </c>
+      <c r="H535" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A536" s="1">
+        <v>535</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E536" s="1">
+        <v>1</v>
+      </c>
+      <c r="H536" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A537" s="23">
+        <v>536</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>4404</v>
+      </c>
+      <c r="E537" s="1">
+        <v>1</v>
+      </c>
+      <c r="H537" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A538" s="1">
+        <v>537</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="E538" s="1">
+        <v>1</v>
+      </c>
+      <c r="H538" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A539" s="1">
+        <v>538</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>4406</v>
+      </c>
+      <c r="E539" s="1">
+        <v>1</v>
+      </c>
+      <c r="H539" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A540" s="23">
+        <v>539</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E540" s="1">
+        <v>1</v>
+      </c>
+      <c r="H540" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A541" s="1">
+        <v>540</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="E541" s="1">
+        <v>1</v>
+      </c>
+      <c r="H541" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A542" s="1">
+        <v>541</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="E542" s="1">
+        <v>1</v>
+      </c>
+      <c r="H542" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A543" s="23">
+        <v>542</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="E543" s="1">
+        <v>1</v>
+      </c>
+      <c r="H543" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A544" s="1">
+        <v>543</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>4411</v>
+      </c>
+      <c r="E544" s="1">
+        <v>1</v>
+      </c>
+      <c r="H544" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A545" s="1">
+        <v>544</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>4412</v>
+      </c>
+      <c r="E545" s="1">
+        <v>1</v>
+      </c>
+      <c r="H545" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A546" s="23">
+        <v>545</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="E546" s="1">
+        <v>1</v>
+      </c>
+      <c r="H546" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A547" s="1">
+        <v>546</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>4414</v>
+      </c>
+      <c r="E547" s="1">
+        <v>1</v>
+      </c>
+      <c r="H547" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A548" s="1">
+        <v>547</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>4415</v>
+      </c>
+      <c r="E548" s="1">
+        <v>1</v>
+      </c>
+      <c r="H548" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A549" s="23">
+        <v>548</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>4416</v>
+      </c>
+      <c r="E549" s="1">
+        <v>1</v>
+      </c>
+      <c r="H549" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A550" s="1">
+        <v>549</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>4417</v>
+      </c>
+      <c r="E550" s="1">
+        <v>1</v>
+      </c>
+      <c r="H550" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A551" s="1">
+        <v>550</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>4418</v>
+      </c>
+      <c r="E551" s="1">
+        <v>1</v>
+      </c>
+      <c r="H551" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A552" s="23">
+        <v>551</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>4419</v>
+      </c>
+      <c r="E552" s="1">
+        <v>1</v>
+      </c>
+      <c r="H552" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A553" s="1">
+        <v>552</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>4420</v>
+      </c>
+      <c r="E553" s="1">
+        <v>1</v>
+      </c>
+      <c r="H553" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>4421</v>
+      </c>
+      <c r="E554" s="1">
+        <v>1</v>
+      </c>
+      <c r="H554" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A555" s="23">
+        <v>554</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>4422</v>
+      </c>
+      <c r="E555" s="1">
+        <v>1</v>
+      </c>
+      <c r="H555" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>4423</v>
+      </c>
+      <c r="E556" s="1">
+        <v>1</v>
+      </c>
+      <c r="H556" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>4424</v>
+      </c>
+      <c r="E557" s="1">
+        <v>1</v>
+      </c>
+      <c r="H557" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A558" s="23">
+        <v>557</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="E558" s="1">
+        <v>1</v>
+      </c>
+      <c r="H558" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A559" s="1">
+        <v>558</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>4426</v>
+      </c>
+      <c r="E559" s="1">
+        <v>1</v>
+      </c>
+      <c r="H559" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A560" s="1">
+        <v>559</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>4427</v>
+      </c>
+      <c r="E560" s="1">
+        <v>1</v>
+      </c>
+      <c r="H560" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A561" s="23">
+        <v>560</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>4428</v>
+      </c>
+      <c r="E561" s="1">
+        <v>1</v>
+      </c>
+      <c r="H561" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A562" s="1">
+        <v>561</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>4429</v>
+      </c>
+      <c r="E562" s="1">
+        <v>1</v>
+      </c>
+      <c r="H562" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A563" s="1">
+        <v>562</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>4430</v>
+      </c>
+      <c r="E563" s="1">
+        <v>1</v>
+      </c>
+      <c r="H563" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A564" s="23">
+        <v>563</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>4431</v>
+      </c>
+      <c r="E564" s="1">
+        <v>1</v>
+      </c>
+      <c r="H564" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A565" s="1">
+        <v>564</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>4432</v>
+      </c>
+      <c r="E565" s="1">
+        <v>1</v>
+      </c>
+      <c r="H565" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A566" s="1">
+        <v>565</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>4433</v>
+      </c>
+      <c r="E566" s="1">
+        <v>1</v>
+      </c>
+      <c r="H566" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A567" s="23">
+        <v>566</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="E567" s="1">
+        <v>1</v>
+      </c>
+      <c r="H567" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A568" s="1">
+        <v>567</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>4435</v>
+      </c>
+      <c r="E568" s="1">
+        <v>1</v>
+      </c>
+      <c r="H568" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A569" s="1">
+        <v>568</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>4436</v>
+      </c>
+      <c r="E569" s="1">
+        <v>1</v>
+      </c>
+      <c r="H569" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A570" s="23">
+        <v>569</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="E570" s="1">
+        <v>1</v>
+      </c>
+      <c r="H570" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A571" s="1">
+        <v>570</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>4438</v>
+      </c>
+      <c r="E571" s="1">
+        <v>1</v>
+      </c>
+      <c r="H571" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A572" s="1">
+        <v>571</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>4439</v>
+      </c>
+      <c r="E572" s="1">
+        <v>1</v>
+      </c>
+      <c r="H572" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A573" s="23">
+        <v>572</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="E573" s="1">
+        <v>1</v>
+      </c>
+      <c r="H573" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A574" s="1">
+        <v>573</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>4441</v>
+      </c>
+      <c r="E574" s="1">
+        <v>1</v>
+      </c>
+      <c r="H574" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A575" s="1">
+        <v>574</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>4442</v>
+      </c>
+      <c r="E575" s="1">
+        <v>1</v>
+      </c>
+      <c r="H575" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A576" s="23">
+        <v>575</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="E576" s="1">
+        <v>1</v>
+      </c>
+      <c r="H576" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A577" s="1">
+        <v>576</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="E577" s="1">
+        <v>1</v>
+      </c>
+      <c r="H577" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A578" s="1">
+        <v>577</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>4445</v>
+      </c>
+      <c r="E578" s="1">
+        <v>1</v>
+      </c>
+      <c r="H578" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A579" s="23">
+        <v>578</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>4446</v>
+      </c>
+      <c r="E579" s="1">
+        <v>1</v>
+      </c>
+      <c r="H579" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A580" s="1">
+        <v>579</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>4447</v>
+      </c>
+      <c r="E580" s="1">
+        <v>1</v>
+      </c>
+      <c r="H580" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A581" s="1">
+        <v>580</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>4448</v>
+      </c>
+      <c r="E581" s="1">
+        <v>1</v>
+      </c>
+      <c r="H581" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A582" s="23">
+        <v>581</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>4449</v>
+      </c>
+      <c r="E582" s="1">
+        <v>1</v>
+      </c>
+      <c r="H582" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A583" s="1">
+        <v>582</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>4450</v>
+      </c>
+      <c r="E583" s="1">
+        <v>1</v>
+      </c>
+      <c r="H583" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A584" s="1">
+        <v>583</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="E584" s="1">
+        <v>1</v>
+      </c>
+      <c r="H584" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A585" s="23">
+        <v>584</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>4452</v>
+      </c>
+      <c r="E585" s="1">
+        <v>1</v>
+      </c>
+      <c r="H585" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A586" s="1">
+        <v>585</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>4454</v>
+      </c>
+      <c r="E586" s="1">
+        <v>1</v>
+      </c>
+      <c r="H586" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A587" s="1">
+        <v>586</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>4453</v>
+      </c>
+      <c r="E587" s="1">
+        <v>1</v>
+      </c>
+      <c r="H587" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A588" s="23">
+        <v>587</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>4455</v>
+      </c>
+      <c r="E588" s="1">
+        <v>1</v>
+      </c>
+      <c r="H588" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A589" s="1">
+        <v>588</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>4456</v>
+      </c>
+      <c r="E589" s="1">
+        <v>1</v>
+      </c>
+      <c r="H589" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A590" s="1">
+        <v>589</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>4457</v>
+      </c>
+      <c r="E590" s="1">
+        <v>1</v>
+      </c>
+      <c r="H590" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A591" s="23">
+        <v>590</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>4458</v>
+      </c>
+      <c r="E591" s="1">
+        <v>1</v>
+      </c>
+      <c r="H591" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A592" s="1">
+        <v>591</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>4459</v>
+      </c>
+      <c r="E592" s="1">
+        <v>1</v>
+      </c>
+      <c r="H592" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A593" s="1">
+        <v>592</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>4460</v>
+      </c>
+      <c r="E593" s="1">
+        <v>1</v>
+      </c>
+      <c r="H593" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A594" s="23">
+        <v>593</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>4461</v>
+      </c>
+      <c r="E594" s="1">
+        <v>1</v>
+      </c>
+      <c r="H594" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A595" s="1">
+        <v>594</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>4462</v>
+      </c>
+      <c r="E595" s="1">
+        <v>1</v>
+      </c>
+      <c r="H595" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A596" s="1">
+        <v>595</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="E596" s="1">
+        <v>1</v>
+      </c>
+      <c r="H596" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A597" s="23">
+        <v>596</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>4463</v>
+      </c>
+      <c r="E597" s="1">
+        <v>1</v>
+      </c>
+      <c r="H597" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A598" s="1">
+        <v>597</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>4464</v>
+      </c>
+      <c r="E598" s="1">
+        <v>1</v>
+      </c>
+      <c r="H598" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A599" s="1">
+        <v>598</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>4465</v>
+      </c>
+      <c r="E599" s="1">
+        <v>1</v>
+      </c>
+      <c r="H599" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A600" s="23">
+        <v>599</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>4466</v>
+      </c>
+      <c r="E600" s="1">
+        <v>1</v>
+      </c>
+      <c r="H600" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A601" s="1">
+        <v>600</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>4467</v>
+      </c>
+      <c r="E601" s="1">
+        <v>1</v>
+      </c>
+      <c r="H601" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A602" s="1">
+        <v>601</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>4468</v>
+      </c>
+      <c r="E602" s="1">
+        <v>1</v>
+      </c>
+      <c r="H602" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A603" s="23">
+        <v>602</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>4469</v>
+      </c>
+      <c r="E603" s="1">
+        <v>1</v>
+      </c>
+      <c r="H603" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A604" s="1">
+        <v>603</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>4470</v>
+      </c>
+      <c r="E604" s="1">
+        <v>1</v>
+      </c>
+      <c r="H604" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A605" s="1">
+        <v>604</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>4471</v>
+      </c>
+      <c r="E605" s="1">
+        <v>1</v>
+      </c>
+      <c r="H605" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A606" s="23">
+        <v>605</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>4472</v>
+      </c>
+      <c r="E606" s="1">
+        <v>1</v>
+      </c>
+      <c r="H606" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A607" s="1">
+        <v>606</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>4473</v>
+      </c>
+      <c r="E607" s="1">
+        <v>1</v>
+      </c>
+      <c r="H607" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A608" s="1">
+        <v>607</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>4474</v>
+      </c>
+      <c r="E608" s="1">
+        <v>1</v>
+      </c>
+      <c r="H608" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A609" s="23">
+        <v>608</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>4475</v>
+      </c>
+      <c r="E609" s="1">
+        <v>1</v>
+      </c>
+      <c r="H609" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A610" s="1">
+        <v>609</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>4476</v>
+      </c>
+      <c r="E610" s="1">
+        <v>1</v>
+      </c>
+      <c r="H610" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A611" s="1">
+        <v>610</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>4477</v>
+      </c>
+      <c r="E611" s="1">
+        <v>1</v>
+      </c>
+      <c r="H611" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A612" s="23">
+        <v>611</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>4478</v>
+      </c>
+      <c r="E612" s="1">
+        <v>1</v>
+      </c>
+      <c r="H612" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A613" s="1">
+        <v>612</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>4479</v>
+      </c>
+      <c r="E613" s="1">
+        <v>1</v>
+      </c>
+      <c r="H613" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A614" s="1">
+        <v>613</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="E614" s="1">
+        <v>1</v>
+      </c>
+      <c r="H614" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A615" s="1">
+        <v>614</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>4633</v>
+      </c>
+      <c r="E615" s="1">
+        <v>1</v>
+      </c>
+      <c r="H615" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A616" s="1">
+        <v>615</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>4634</v>
+      </c>
+      <c r="E616" s="1">
+        <v>1</v>
+      </c>
+      <c r="H616" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A617" s="23">
+        <v>616</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>4635</v>
+      </c>
+      <c r="E617" s="1">
+        <v>1</v>
+      </c>
+      <c r="H617" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A618" s="1">
+        <v>617</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>4636</v>
+      </c>
+      <c r="E618" s="1">
+        <v>1</v>
+      </c>
+      <c r="H618" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A619" s="1">
+        <v>618</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>4637</v>
+      </c>
+      <c r="E619" s="1">
+        <v>1</v>
+      </c>
+      <c r="H619" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A620" s="1">
+        <v>619</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>4638</v>
+      </c>
+      <c r="E620" s="1">
+        <v>1</v>
+      </c>
+      <c r="H620" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A621" s="1">
+        <v>620</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>4639</v>
+      </c>
+      <c r="E621" s="1">
+        <v>1</v>
+      </c>
+      <c r="H621" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A622" s="23">
+        <v>621</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>4640</v>
+      </c>
+      <c r="E622" s="1">
+        <v>1</v>
+      </c>
+      <c r="H622" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A623" s="1">
+        <v>622</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>4641</v>
+      </c>
+      <c r="E623" s="1">
+        <v>1</v>
+      </c>
+      <c r="H623" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A624" s="1">
+        <v>623</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>4642</v>
+      </c>
+      <c r="E624" s="1">
+        <v>1</v>
+      </c>
+      <c r="H624" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A625" s="1">
+        <v>624</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>4643</v>
+      </c>
+      <c r="E625" s="1">
+        <v>1</v>
+      </c>
+      <c r="H625" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A626" s="1">
+        <v>625</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>4644</v>
+      </c>
+      <c r="E626" s="1">
+        <v>1</v>
+      </c>
+      <c r="H626" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A627" s="23">
+        <v>626</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>4480</v>
+      </c>
+      <c r="E627" s="1">
+        <v>1</v>
+      </c>
+      <c r="H627" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A628" s="1">
+        <v>627</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>4481</v>
+      </c>
+      <c r="E628" s="1">
+        <v>1</v>
+      </c>
+      <c r="H628" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A629" s="1">
+        <v>628</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>4482</v>
+      </c>
+      <c r="E629" s="1">
+        <v>1</v>
+      </c>
+      <c r="H629" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A630" s="1">
+        <v>629</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>4483</v>
+      </c>
+      <c r="E630" s="1">
+        <v>1</v>
+      </c>
+      <c r="H630" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A631" s="1">
+        <v>630</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>4484</v>
+      </c>
+      <c r="E631" s="1">
+        <v>1</v>
+      </c>
+      <c r="H631" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A632" s="23">
+        <v>631</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>4485</v>
+      </c>
+      <c r="E632" s="1">
+        <v>1</v>
+      </c>
+      <c r="H632" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A633" s="1">
+        <v>632</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>4486</v>
+      </c>
+      <c r="E633" s="1">
+        <v>1</v>
+      </c>
+      <c r="H633" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A634" s="1">
+        <v>633</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="E634" s="1">
+        <v>1</v>
+      </c>
+      <c r="H634" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A635" s="1">
+        <v>634</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="E635" s="1">
+        <v>1</v>
+      </c>
+      <c r="H635" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A636" s="1">
+        <v>635</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>4489</v>
+      </c>
+      <c r="E636" s="1">
+        <v>1</v>
+      </c>
+      <c r="H636" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A637" s="23">
+        <v>636</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>4490</v>
+      </c>
+      <c r="E637" s="1">
+        <v>1</v>
+      </c>
+      <c r="H637" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A638" s="1">
+        <v>637</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="E638" s="1">
+        <v>1</v>
+      </c>
+      <c r="H638" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A639" s="1">
+        <v>638</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>4492</v>
+      </c>
+      <c r="E639" s="1">
+        <v>1</v>
+      </c>
+      <c r="H639" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A640" s="1">
+        <v>639</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>4493</v>
+      </c>
+      <c r="E640" s="1">
+        <v>1</v>
+      </c>
+      <c r="H640" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A641" s="1">
+        <v>640</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="E641" s="1">
+        <v>1</v>
+      </c>
+      <c r="H641" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A642" s="23">
+        <v>641</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>4495</v>
+      </c>
+      <c r="E642" s="1">
+        <v>1</v>
+      </c>
+      <c r="H642" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A643" s="1">
+        <v>642</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="E643" s="1">
+        <v>1</v>
+      </c>
+      <c r="H643" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A644" s="1">
+        <v>643</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>4497</v>
+      </c>
+      <c r="E644" s="1">
+        <v>1</v>
+      </c>
+      <c r="H644" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A645" s="1">
+        <v>644</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>4498</v>
+      </c>
+      <c r="D645" s="1">
+        <v>3</v>
+      </c>
+      <c r="E645" s="1">
+        <v>1</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>4499</v>
+      </c>
+      <c r="H645" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A646" s="1">
+        <v>645</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="E646" s="1">
+        <v>1</v>
+      </c>
+      <c r="H646" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A647" s="23">
+        <v>646</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>4501</v>
+      </c>
+      <c r="E647" s="1">
+        <v>1</v>
+      </c>
+      <c r="H647" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A648" s="1">
+        <v>647</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>4502</v>
+      </c>
+      <c r="E648" s="1">
+        <v>1</v>
+      </c>
+      <c r="H648" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A649" s="1">
+        <v>648</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="E649" s="1">
+        <v>1</v>
+      </c>
+      <c r="H649" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A650" s="1">
+        <v>649</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>4504</v>
+      </c>
+      <c r="E650" s="1">
+        <v>1</v>
+      </c>
+      <c r="H650" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A651" s="1">
+        <v>650</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="E651" s="1">
+        <v>1</v>
+      </c>
+      <c r="H651" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A652" s="23">
+        <v>651</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>4506</v>
+      </c>
+      <c r="E652" s="1">
+        <v>1</v>
+      </c>
+      <c r="H652" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A653" s="1">
+        <v>652</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>4507</v>
+      </c>
+      <c r="E653" s="1">
+        <v>1</v>
+      </c>
+      <c r="H653" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A654" s="1">
+        <v>653</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>4508</v>
+      </c>
+      <c r="E654" s="1">
+        <v>1</v>
+      </c>
+      <c r="H654" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A655" s="1">
+        <v>654</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>4509</v>
+      </c>
+      <c r="E655" s="1">
+        <v>1</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>4510</v>
+      </c>
+      <c r="H655" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A656" s="1">
+        <v>655</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="E656" s="1">
+        <v>1</v>
+      </c>
+      <c r="H656" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A657" s="23">
+        <v>656</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>4512</v>
+      </c>
+      <c r="E657" s="1">
+        <v>1</v>
+      </c>
+      <c r="H657" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A658" s="1">
+        <v>657</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="E658" s="1">
+        <v>1</v>
+      </c>
+      <c r="H658" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A659" s="1">
+        <v>658</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>4514</v>
+      </c>
+      <c r="E659" s="1">
+        <v>1</v>
+      </c>
+      <c r="H659" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A660" s="1">
+        <v>659</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="E660" s="1">
+        <v>1</v>
+      </c>
+      <c r="H660" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A661" s="1">
+        <v>660</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>4516</v>
+      </c>
+      <c r="E661" s="1">
+        <v>1</v>
+      </c>
+      <c r="H661" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A662" s="23">
+        <v>661</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>4517</v>
+      </c>
+      <c r="E662" s="1">
+        <v>1</v>
+      </c>
+      <c r="H662" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A663" s="1">
+        <v>662</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>4518</v>
+      </c>
+      <c r="E663" s="1">
+        <v>1</v>
+      </c>
+      <c r="H663" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A664" s="1">
+        <v>663</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>4519</v>
+      </c>
+      <c r="E664" s="1">
+        <v>1</v>
+      </c>
+      <c r="H664" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A665" s="1">
+        <v>664</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>4520</v>
+      </c>
+      <c r="E665" s="1">
+        <v>1</v>
+      </c>
+      <c r="H665" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A666" s="1">
+        <v>665</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="E666" s="1">
+        <v>1</v>
+      </c>
+      <c r="H666" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A667" s="23">
+        <v>666</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>4522</v>
+      </c>
+      <c r="E667" s="1">
+        <v>1</v>
+      </c>
+      <c r="H667" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A668" s="1">
+        <v>667</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>4523</v>
+      </c>
+      <c r="E668" s="1">
+        <v>1</v>
+      </c>
+      <c r="H668" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A669" s="1">
+        <v>668</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>4524</v>
+      </c>
+      <c r="E669" s="1">
+        <v>1</v>
+      </c>
+      <c r="H669" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A670" s="1">
+        <v>669</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>4525</v>
+      </c>
+      <c r="E670" s="1">
+        <v>1</v>
+      </c>
+      <c r="H670" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A671" s="1">
+        <v>670</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>4526</v>
+      </c>
+      <c r="E671" s="1">
+        <v>1</v>
+      </c>
+      <c r="H671" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A672" s="23">
+        <v>671</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>4527</v>
+      </c>
+      <c r="E672" s="1">
+        <v>1</v>
+      </c>
+      <c r="H672" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A673" s="1">
+        <v>672</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>4528</v>
+      </c>
+      <c r="E673" s="1">
+        <v>1</v>
+      </c>
+      <c r="H673" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A674" s="1">
+        <v>673</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E674" s="1">
+        <v>1</v>
+      </c>
+      <c r="H674" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A675" s="1">
+        <v>674</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E675" s="1">
+        <v>1</v>
+      </c>
+      <c r="H675" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A676" s="1">
+        <v>675</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E676" s="1">
+        <v>1</v>
+      </c>
+      <c r="H676" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A677" s="23">
+        <v>676</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="E677" s="1">
+        <v>1</v>
+      </c>
+      <c r="H677" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A678" s="1">
+        <v>677</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>4530</v>
+      </c>
+      <c r="E678" s="1">
+        <v>1</v>
+      </c>
+      <c r="H678" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A679" s="1">
+        <v>678</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>4531</v>
+      </c>
+      <c r="E679" s="1">
+        <v>1</v>
+      </c>
+      <c r="H679" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A680" s="1">
+        <v>679</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>4532</v>
+      </c>
+      <c r="E680" s="1">
+        <v>1</v>
+      </c>
+      <c r="H680" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A681" s="1">
+        <v>680</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="E681" s="1">
+        <v>1</v>
+      </c>
+      <c r="H681" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A682" s="23">
+        <v>681</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>4534</v>
+      </c>
+      <c r="E682" s="1">
+        <v>1</v>
+      </c>
+      <c r="H682" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A683" s="1">
+        <v>682</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="E683" s="1">
+        <v>1</v>
+      </c>
+      <c r="H683" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A684" s="1">
+        <v>683</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>4536</v>
+      </c>
+      <c r="E684" s="1">
+        <v>1</v>
+      </c>
+      <c r="H684" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A685" s="1">
+        <v>684</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>4537</v>
+      </c>
+      <c r="E685" s="1">
+        <v>1</v>
+      </c>
+      <c r="H685" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A686" s="1">
+        <v>685</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>4538</v>
+      </c>
+      <c r="E686" s="1">
+        <v>1</v>
+      </c>
+      <c r="H686" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A687" s="23">
+        <v>686</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="E687" s="1">
+        <v>1</v>
+      </c>
+      <c r="H687" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A688" s="1">
+        <v>687</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E688" s="1">
+        <v>1</v>
+      </c>
+      <c r="H688" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A689" s="1">
+        <v>688</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E689" s="1">
+        <v>1</v>
+      </c>
+      <c r="H689" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A690" s="1">
+        <v>689</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>4540</v>
+      </c>
+      <c r="E690" s="1">
+        <v>1</v>
+      </c>
+      <c r="H690" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A691" s="1">
+        <v>690</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>4541</v>
+      </c>
+      <c r="E691" s="1">
+        <v>1</v>
+      </c>
+      <c r="H691" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A692" s="23">
+        <v>691</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>4542</v>
+      </c>
+      <c r="E692" s="1">
+        <v>1</v>
+      </c>
+      <c r="H692" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A693" s="1">
+        <v>692</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="E693" s="1">
+        <v>1</v>
+      </c>
+      <c r="H693" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A694" s="1">
+        <v>693</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="E694" s="1">
+        <v>1</v>
+      </c>
+      <c r="H694" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A695" s="1">
+        <v>694</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>4545</v>
+      </c>
+      <c r="E695" s="1">
+        <v>1</v>
+      </c>
+      <c r="H695" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A696" s="1">
+        <v>695</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>4546</v>
+      </c>
+      <c r="E696" s="1">
+        <v>1</v>
+      </c>
+      <c r="H696" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A697" s="23">
+        <v>696</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>4547</v>
+      </c>
+      <c r="E697" s="1">
+        <v>1</v>
+      </c>
+      <c r="H697" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A698" s="1">
+        <v>697</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>4548</v>
+      </c>
+      <c r="E698" s="1">
+        <v>1</v>
+      </c>
+      <c r="H698" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A699" s="1">
+        <v>698</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>4549</v>
+      </c>
+      <c r="E699" s="1">
+        <v>1</v>
+      </c>
+      <c r="H699" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A700" s="1">
+        <v>699</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>4550</v>
+      </c>
+      <c r="E700" s="1">
+        <v>1</v>
+      </c>
+      <c r="H700" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A701" s="1">
+        <v>700</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>4551</v>
+      </c>
+      <c r="E701" s="1">
+        <v>1</v>
+      </c>
+      <c r="H701" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A702" s="23">
+        <v>701</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>4552</v>
+      </c>
+      <c r="E702" s="1">
+        <v>1</v>
+      </c>
+      <c r="H702" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A703" s="1">
+        <v>702</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>4553</v>
+      </c>
+      <c r="E703" s="1">
+        <v>1</v>
+      </c>
+      <c r="H703" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A704" s="1">
+        <v>703</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>4554</v>
+      </c>
+      <c r="E704" s="1">
+        <v>1</v>
+      </c>
+      <c r="H704" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A705" s="1">
+        <v>704</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>4555</v>
+      </c>
+      <c r="E705" s="1">
+        <v>1</v>
+      </c>
+      <c r="H705" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A706" s="1">
+        <v>705</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>4556</v>
+      </c>
+      <c r="E706" s="1">
+        <v>1</v>
+      </c>
+      <c r="H706" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A707" s="23">
+        <v>706</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>4557</v>
+      </c>
+      <c r="E707" s="1">
+        <v>1</v>
+      </c>
+      <c r="H707" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A708" s="1">
+        <v>707</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>4558</v>
+      </c>
+      <c r="E708" s="1">
+        <v>1</v>
+      </c>
+      <c r="H708" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A709" s="1">
+        <v>708</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>4559</v>
+      </c>
+      <c r="E709" s="1">
+        <v>1</v>
+      </c>
+      <c r="H709" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A710" s="1">
+        <v>709</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>4560</v>
+      </c>
+      <c r="E710" s="1">
+        <v>1</v>
+      </c>
+      <c r="H710" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A711" s="1">
+        <v>710</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>4561</v>
+      </c>
+      <c r="E711" s="1">
+        <v>1</v>
+      </c>
+      <c r="H711" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A712" s="23">
+        <v>711</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>4562</v>
+      </c>
+      <c r="E712" s="1">
+        <v>1</v>
+      </c>
+      <c r="H712" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A713" s="1">
+        <v>712</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>4563</v>
+      </c>
+      <c r="E713" s="1">
+        <v>1</v>
+      </c>
+      <c r="H713" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A714" s="1">
+        <v>713</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>4564</v>
+      </c>
+      <c r="E714" s="1">
+        <v>1</v>
+      </c>
+      <c r="H714" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A715" s="1">
+        <v>714</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>4565</v>
+      </c>
+      <c r="E715" s="1">
+        <v>1</v>
+      </c>
+      <c r="H715" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A716" s="1">
+        <v>715</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>4566</v>
+      </c>
+      <c r="E716" s="1">
+        <v>1</v>
+      </c>
+      <c r="H716" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A717" s="23">
+        <v>716</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="E717" s="1">
+        <v>1</v>
+      </c>
+      <c r="H717" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A718" s="1">
+        <v>717</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E718" s="1">
+        <v>1</v>
+      </c>
+      <c r="H718" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A719" s="1">
+        <v>718</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E719" s="1">
+        <v>1</v>
+      </c>
+      <c r="H719" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A720" s="1">
+        <v>719</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>4570</v>
+      </c>
+      <c r="E720" s="1">
+        <v>1</v>
+      </c>
+      <c r="H720" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A721" s="1">
+        <v>720</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>4571</v>
+      </c>
+      <c r="E721" s="1">
+        <v>1</v>
+      </c>
+      <c r="H721" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A722" s="23">
+        <v>721</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>4572</v>
+      </c>
+      <c r="E722" s="1">
+        <v>1</v>
+      </c>
+      <c r="H722" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A723" s="1">
+        <v>722</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>4573</v>
+      </c>
+      <c r="E723" s="1">
+        <v>1</v>
+      </c>
+      <c r="H723" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A724" s="1">
+        <v>723</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>4574</v>
+      </c>
+      <c r="E724" s="1">
+        <v>1</v>
+      </c>
+      <c r="H724" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A725" s="1">
+        <v>724</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>4575</v>
+      </c>
+      <c r="E725" s="1">
+        <v>1</v>
+      </c>
+      <c r="H725" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A726" s="1">
+        <v>725</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>4576</v>
+      </c>
+      <c r="E726" s="1">
+        <v>1</v>
+      </c>
+      <c r="H726" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A727" s="23">
+        <v>726</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>4594</v>
+      </c>
+      <c r="E727" s="1">
+        <v>1</v>
+      </c>
+      <c r="H727" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A728" s="1">
+        <v>727</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E728" s="1">
+        <v>1</v>
+      </c>
+      <c r="H728" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A729" s="1">
+        <v>728</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>4596</v>
+      </c>
+      <c r="E729" s="1">
+        <v>1</v>
+      </c>
+      <c r="H729" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A730" s="1">
+        <v>729</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>4597</v>
+      </c>
+      <c r="E730" s="1">
+        <v>1</v>
+      </c>
+      <c r="H730" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A731" s="1">
+        <v>730</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>4577</v>
+      </c>
+      <c r="E731" s="1">
+        <v>1</v>
+      </c>
+      <c r="H731" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A732" s="23">
+        <v>731</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>4598</v>
+      </c>
+      <c r="E732" s="1">
+        <v>1</v>
+      </c>
+      <c r="H732" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A733" s="1">
+        <v>732</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>4599</v>
+      </c>
+      <c r="E733" s="1">
+        <v>1</v>
+      </c>
+      <c r="H733" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A734" s="1">
+        <v>733</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>4600</v>
+      </c>
+      <c r="E734" s="1">
+        <v>1</v>
+      </c>
+      <c r="H734" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A735" s="1">
+        <v>734</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>4578</v>
+      </c>
+      <c r="E735" s="1">
+        <v>1</v>
+      </c>
+      <c r="H735" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A736" s="1">
+        <v>735</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>4579</v>
+      </c>
+      <c r="E736" s="1">
+        <v>1</v>
+      </c>
+      <c r="H736" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A737" s="23">
+        <v>736</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>4601</v>
+      </c>
+      <c r="E737" s="1">
+        <v>1</v>
+      </c>
+      <c r="H737" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A738" s="1">
+        <v>737</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>4580</v>
+      </c>
+      <c r="E738" s="1">
+        <v>1</v>
+      </c>
+      <c r="H738" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A739" s="1">
+        <v>738</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>4581</v>
+      </c>
+      <c r="E739" s="1">
+        <v>1</v>
+      </c>
+      <c r="H739" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A740" s="1">
+        <v>739</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>4602</v>
+      </c>
+      <c r="E740" s="1">
+        <v>1</v>
+      </c>
+      <c r="H740" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A741" s="1">
+        <v>740</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="E741" s="1">
+        <v>1</v>
+      </c>
+      <c r="H741" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A742" s="23">
+        <v>741</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>4583</v>
+      </c>
+      <c r="E742" s="1">
+        <v>1</v>
+      </c>
+      <c r="H742" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A743" s="1">
+        <v>742</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>4584</v>
+      </c>
+      <c r="E743" s="1">
+        <v>1</v>
+      </c>
+      <c r="H743" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A744" s="1">
+        <v>743</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>4603</v>
+      </c>
+      <c r="E744" s="1">
+        <v>1</v>
+      </c>
+      <c r="H744" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A745" s="1">
+        <v>744</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>4604</v>
+      </c>
+      <c r="E745" s="1">
+        <v>1</v>
+      </c>
+      <c r="H745" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A746" s="1">
+        <v>745</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>4605</v>
+      </c>
+      <c r="E746" s="1">
+        <v>1</v>
+      </c>
+      <c r="H746" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A747" s="23">
+        <v>746</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>4585</v>
+      </c>
+      <c r="E747" s="1">
+        <v>1</v>
+      </c>
+      <c r="H747" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A748" s="1">
+        <v>747</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>4586</v>
+      </c>
+      <c r="E748" s="1">
+        <v>1</v>
+      </c>
+      <c r="H748" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A749" s="1">
+        <v>748</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>4587</v>
+      </c>
+      <c r="E749" s="1">
+        <v>1</v>
+      </c>
+      <c r="H749" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A750" s="1">
+        <v>749</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>4606</v>
+      </c>
+      <c r="E750" s="1">
+        <v>1</v>
+      </c>
+      <c r="H750" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A751" s="1">
+        <v>750</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>4588</v>
+      </c>
+      <c r="E751" s="1">
+        <v>1</v>
+      </c>
+      <c r="H751" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A752" s="23">
+        <v>751</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>4589</v>
+      </c>
+      <c r="E752" s="1">
+        <v>1</v>
+      </c>
+      <c r="H752" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A753" s="1">
+        <v>752</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="E753" s="1">
+        <v>1</v>
+      </c>
+      <c r="H753" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A754" s="1">
+        <v>753</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>4608</v>
+      </c>
+      <c r="E754" s="1">
+        <v>1</v>
+      </c>
+      <c r="H754" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A755" s="1">
+        <v>754</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>4590</v>
+      </c>
+      <c r="E755" s="1">
+        <v>1</v>
+      </c>
+      <c r="H755" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A756" s="1">
+        <v>755</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>4591</v>
+      </c>
+      <c r="E756" s="1">
+        <v>1</v>
+      </c>
+      <c r="H756" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A757" s="23">
+        <v>756</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>4592</v>
+      </c>
+      <c r="E757" s="1">
+        <v>1</v>
+      </c>
+      <c r="H757" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A758" s="1">
+        <v>757</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>4593</v>
+      </c>
+      <c r="E758" s="1">
+        <v>1</v>
+      </c>
+      <c r="H758" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A759" s="1">
+        <v>758</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>4609</v>
+      </c>
+      <c r="E759" s="1">
+        <v>1</v>
+      </c>
+      <c r="H759" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A760" s="1">
+        <v>759</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>4610</v>
+      </c>
+      <c r="E760" s="1">
+        <v>1</v>
+      </c>
+      <c r="H760" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A761" s="1">
+        <v>760</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>4611</v>
+      </c>
+      <c r="E761" s="1">
+        <v>1</v>
+      </c>
+      <c r="H761" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A762" s="23">
+        <v>761</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>4612</v>
+      </c>
+      <c r="E762" s="1">
+        <v>1</v>
+      </c>
+      <c r="H762" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A763" s="1">
+        <v>762</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>4613</v>
+      </c>
+      <c r="E763" s="1">
+        <v>1</v>
+      </c>
+      <c r="H763" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A764" s="1">
+        <v>763</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="E764" s="1">
+        <v>1</v>
+      </c>
+      <c r="H764" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A765" s="1">
+        <v>764</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="E765" s="1">
+        <v>1</v>
+      </c>
+      <c r="H765" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A766" s="1">
+        <v>765</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>4616</v>
+      </c>
+      <c r="E766" s="1">
+        <v>1</v>
+      </c>
+      <c r="H766" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A767" s="23">
+        <v>766</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>4617</v>
+      </c>
+      <c r="E767" s="1">
+        <v>1</v>
+      </c>
+      <c r="H767" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A768" s="1">
+        <v>767</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>4618</v>
+      </c>
+      <c r="E768" s="1">
+        <v>1</v>
+      </c>
+      <c r="H768" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A769" s="1">
+        <v>768</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>4619</v>
+      </c>
+      <c r="E769" s="1">
+        <v>1</v>
+      </c>
+      <c r="H769" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A770" s="1">
+        <v>769</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>4620</v>
+      </c>
+      <c r="E770" s="1">
+        <v>1</v>
+      </c>
+      <c r="H770" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A771" s="1">
+        <v>770</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>4621</v>
+      </c>
+      <c r="E771" s="1">
+        <v>1</v>
+      </c>
+      <c r="H771" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A772" s="23">
+        <v>771</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>4622</v>
+      </c>
+      <c r="E772" s="1">
+        <v>1</v>
+      </c>
+      <c r="H772" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A773" s="1">
+        <v>772</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>4623</v>
+      </c>
+      <c r="E773" s="1">
+        <v>1</v>
+      </c>
+      <c r="H773" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A774" s="1">
+        <v>773</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>4624</v>
+      </c>
+      <c r="E774" s="1">
+        <v>1</v>
+      </c>
+      <c r="H774" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A775" s="1">
+        <v>774</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>4625</v>
+      </c>
+      <c r="E775" s="1">
+        <v>1</v>
+      </c>
+      <c r="H775" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A776" s="1">
+        <v>775</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>4626</v>
+      </c>
+      <c r="E776" s="1">
+        <v>1</v>
+      </c>
+      <c r="H776" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A777" s="23">
+        <v>776</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>4627</v>
+      </c>
+      <c r="E777" s="1">
+        <v>1</v>
+      </c>
+      <c r="H777" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A778" s="1">
+        <v>777</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>4628</v>
+      </c>
+      <c r="E778" s="1">
+        <v>1</v>
+      </c>
+      <c r="H778" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A779" s="1">
+        <v>778</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>4629</v>
+      </c>
+      <c r="E779" s="1">
+        <v>1</v>
+      </c>
+      <c r="H779" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A780" s="1">
+        <v>779</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>4630</v>
+      </c>
+      <c r="E780" s="1">
+        <v>1</v>
+      </c>
+      <c r="H780" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A781" s="23">
+        <v>780</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>4631</v>
+      </c>
+      <c r="E781" s="1">
+        <v>1</v>
+      </c>
+      <c r="H781" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -67437,7 +72132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/src/data/TDE5.xlsx
+++ b/src/data/TDE5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="8" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="11" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -14024,7 +14024,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -14198,7 +14198,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="215">
@@ -15402,7 +15402,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="1">
+    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="214"/>
     </tableStyle>
   </tableStyles>
@@ -16780,8 +16780,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212">
-  <autoFilter ref="A1:B10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212">
+  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-000011000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -16789,16 +16789,16 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="id" dataDxfId="211"/>
-    <tableColumn id="2" name="name" dataDxfId="210"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="211"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:F60" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
-  <autoFilter ref="A1:F60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:F60" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+  <autoFilter ref="A1:F60" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16810,20 +16810,20 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="id" dataDxfId="119"/>
-    <tableColumn id="2" name="name" dataDxfId="118"/>
-    <tableColumn id="3" name="check" dataDxfId="117"/>
-    <tableColumn id="4" name="skt" dataDxfId="116"/>
-    <tableColumn id="5" name="be" dataDxfId="115"/>
-    <tableColumn id="6" name="gr" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="id" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="name" dataDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="check" dataDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="skt" dataDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="be" dataDxfId="115"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="gr" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:J234" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
-  <autoFilter ref="A1:J234">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:J234" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+  <autoFilter ref="A1:J234" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16836,24 +16836,24 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="111"/>
-    <tableColumn id="2" name="name" dataDxfId="110"/>
-    <tableColumn id="3" name="check" dataDxfId="109"/>
-    <tableColumn id="9" name="mod" dataDxfId="108"/>
-    <tableColumn id="4" name="skt" dataDxfId="107"/>
-    <tableColumn id="7" name="trad" dataDxfId="106"/>
-    <tableColumn id="10" name="subtrad" dataDxfId="105"/>
-    <tableColumn id="5" name="merk" dataDxfId="104"/>
-    <tableColumn id="6" name="gr" dataDxfId="103"/>
-    <tableColumn id="8" name="req" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="id" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="name" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="check" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="mod" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="skt" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="trad" dataDxfId="106"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="subtrad" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="merk" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="gr" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="req" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:E44" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
-  <autoFilter ref="A1:E44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table14" displayName="Table14" ref="A1:E44" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+  <autoFilter ref="A1:E44" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16861,19 +16861,19 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="99"/>
-    <tableColumn id="2" name="name" dataDxfId="98"/>
-    <tableColumn id="3" name="trad" dataDxfId="97"/>
-    <tableColumn id="4" name="merk" dataDxfId="96"/>
-    <tableColumn id="5" name="req" dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="trad" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="merk" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="req" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:H193" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
-  <autoFilter ref="A1:H193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:H193" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+  <autoFilter ref="A1:H193" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16884,22 +16884,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="id" dataDxfId="92"/>
-    <tableColumn id="2" name="name" dataDxfId="91"/>
-    <tableColumn id="3" name="check" dataDxfId="90"/>
-    <tableColumn id="8" name="mod" dataDxfId="89"/>
-    <tableColumn id="4" name="skt" dataDxfId="88"/>
-    <tableColumn id="5" name="trad" dataDxfId="87"/>
-    <tableColumn id="6" name="aspc" dataDxfId="86"/>
-    <tableColumn id="7" name="gr" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="check" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="mod" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="skt" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="trad" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="aspc" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="gr" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1417" displayName="Table1417" ref="A1:E13" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
-  <autoFilter ref="A1:E13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table1417" displayName="Table1417" ref="A1:E13" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000010000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16907,19 +16907,19 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="82"/>
-    <tableColumn id="2" name="name" dataDxfId="81"/>
-    <tableColumn id="3" name="trad" dataDxfId="80"/>
-    <tableColumn id="4" name="aspc" dataDxfId="79"/>
-    <tableColumn id="5" name="req" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="trad" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="aspc" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="req" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:H781" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
-  <autoFilter ref="A1:H781">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:H781" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+  <autoFilter ref="A1:H781" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16930,22 +16930,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="id" dataDxfId="75"/>
-    <tableColumn id="2" name="name" dataDxfId="74"/>
-    <tableColumn id="3" name="ap" dataDxfId="73"/>
-    <tableColumn id="4" name="tiers" dataDxfId="72"/>
-    <tableColumn id="5" name="max" dataDxfId="71"/>
-    <tableColumn id="6" name="sel" dataDxfId="70"/>
-    <tableColumn id="8" name="req" dataDxfId="69"/>
-    <tableColumn id="9" name="gr" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="ap" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="tiers" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="max" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="sel" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="req" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0E00-000009000000}" name="gr" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:E111" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="A1:E111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table10" displayName="Table10" ref="A1:E111" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+  <autoFilter ref="A1:E111" xr:uid="{00000000-0009-0000-0100-00000A000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16953,52 +16953,52 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="65"/>
-    <tableColumn id="2" name="name" dataDxfId="64"/>
-    <tableColumn id="3" name="req" dataDxfId="63"/>
-    <tableColumn id="4" name="cost" dataDxfId="62"/>
-    <tableColumn id="5" name="sec" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="req" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="cost" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="sec" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:D76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:D76" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="58"/>
-    <tableColumn id="2" name="name" dataDxfId="57"/>
-    <tableColumn id="5" name="cont" dataDxfId="56"/>
-    <tableColumn id="6" name="ext" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="cont" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="ext" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabelle19212324" displayName="Tabelle19212324" ref="A1:C19" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
-  <autoFilter ref="A1:C19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle19212324" displayName="Tabelle19212324" ref="A1:C19" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="A1:C19" xr:uid="{00000000-0009-0000-0100-000017000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="52"/>
-    <tableColumn id="2" name="name" dataDxfId="51"/>
-    <tableColumn id="3" name="talent" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="talent" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:F36" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
-  <autoFilter ref="A1:F36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table11" displayName="Table11" ref="A1:F36" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="A1:F36" xr:uid="{00000000-0009-0000-0100-00000B000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -17007,20 +17007,20 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="id" dataDxfId="47"/>
-    <tableColumn id="2" name="name" dataDxfId="46"/>
-    <tableColumn id="3" name="languages" dataDxfId="45"/>
-    <tableColumn id="4" name="cost" dataDxfId="44"/>
-    <tableColumn id="5" name="cont" dataDxfId="43"/>
-    <tableColumn id="6" name="ext" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="id" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="name" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="languages" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="cost" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="cont" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="ext" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:I8" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
-  <autoFilter ref="A1:I8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:I8" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
+  <autoFilter ref="A1:I8" xr:uid="{00000000-0009-0000-0100-00000D000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -17032,23 +17032,23 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="id" dataDxfId="207"/>
-    <tableColumn id="2" name="name" dataDxfId="206"/>
-    <tableColumn id="3" name="ap" dataDxfId="205"/>
-    <tableColumn id="4" name="maxAttributeValue" dataDxfId="204"/>
-    <tableColumn id="5" name="maxSkillRating" dataDxfId="203"/>
-    <tableColumn id="6" name="maxCombatTechniqueRating" dataDxfId="202"/>
-    <tableColumn id="7" name="maxTotalAttributeValues" dataDxfId="201"/>
-    <tableColumn id="8" name="maxSpellsLiturgies" dataDxfId="200"/>
-    <tableColumn id="9" name="maxUnfamiliarSpells" dataDxfId="199"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="207"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="206"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ap" dataDxfId="205"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="maxAttributeValue" dataDxfId="204"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="maxSkillRating" dataDxfId="203"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="maxCombatTechniqueRating" dataDxfId="202"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="maxTotalAttributeValues" dataDxfId="201"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="maxSpellsLiturgies" dataDxfId="200"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="maxUnfamiliarSpells" dataDxfId="199"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle192123" displayName="Tabelle192123" ref="A1:E7" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:E7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabelle192123" displayName="Tabelle192123" ref="A1:E7" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000016000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -17056,19 +17056,19 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="39"/>
-    <tableColumn id="2" name="name" dataDxfId="38"/>
-    <tableColumn id="3" name="cost" dataDxfId="37"/>
-    <tableColumn id="4" name="gr" dataDxfId="36"/>
-    <tableColumn id="5" name="tier" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="id" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="name" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="cost" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="gr" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="tier" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:F466" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" dataCellStyle="Excel Built-in Normal">
-  <autoFilter ref="A1:F466">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table15" displayName="Table15" ref="A1:F466" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" dataCellStyle="Excel Built-in Normal">
+  <autoFilter ref="A1:F466" xr:uid="{00000000-0009-0000-0100-00000F000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -17077,57 +17077,57 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="id" dataDxfId="32"/>
-    <tableColumn id="2" name="name" dataDxfId="31" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="5" name="target" dataDxfId="30" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="6" name="tier" dataDxfId="29"/>
-    <tableColumn id="3" name="req" dataDxfId="28" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="4" name="cost" dataDxfId="27" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="name" dataDxfId="31" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="target" dataDxfId="30" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="tier" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="req" dataDxfId="28" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="cost" dataDxfId="27" dataCellStyle="Excel Built-in Normal"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="A1:Y484" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:Y484"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:Y484" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:Y484" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <sortState ref="A2:Y484">
     <sortCondition ref="A1:A484"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" name="id" dataDxfId="24"/>
-    <tableColumn id="2" name="name" dataDxfId="23"/>
-    <tableColumn id="3" name="price" dataDxfId="22"/>
-    <tableColumn id="4" name="weight" dataDxfId="21"/>
-    <tableColumn id="5" name="gr" dataDxfId="20"/>
-    <tableColumn id="6" name="ct" dataDxfId="19"/>
-    <tableColumn id="7" name="ddn" dataDxfId="18"/>
-    <tableColumn id="20" name="dds" dataDxfId="17"/>
-    <tableColumn id="8" name="df" dataDxfId="16"/>
-    <tableColumn id="9" name="db" dataDxfId="15"/>
-    <tableColumn id="10" name="at" dataDxfId="14"/>
-    <tableColumn id="11" name="pa" dataDxfId="13"/>
-    <tableColumn id="12" name="re" dataDxfId="12"/>
-    <tableColumn id="13" name="length" dataDxfId="11"/>
-    <tableColumn id="14" name="stp" dataDxfId="10"/>
-    <tableColumn id="21" name="range" dataDxfId="9"/>
-    <tableColumn id="15" name="rt" dataDxfId="8"/>
-    <tableColumn id="16" name="am" dataDxfId="7"/>
-    <tableColumn id="17" name="pro" dataDxfId="6"/>
-    <tableColumn id="18" name="enc" dataDxfId="5"/>
-    <tableColumn id="19" name="addp" dataDxfId="4"/>
-    <tableColumn id="25" name="armty" dataDxfId="3"/>
-    <tableColumn id="22" name="pryw" dataDxfId="2"/>
-    <tableColumn id="23" name="two" dataDxfId="1"/>
-    <tableColumn id="24" name="imp" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="name" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="price" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="weight" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="gr" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="ct" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="ddn" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1500-000014000000}" name="dds" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="df" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1500-000009000000}" name="db" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1500-00000A000000}" name="at" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1500-00000B000000}" name="pa" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1500-00000C000000}" name="re" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1500-00000D000000}" name="length" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1500-00000E000000}" name="stp" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1500-000015000000}" name="range" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1500-00000F000000}" name="rt" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1500-000010000000}" name="am" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1500-000011000000}" name="pro" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1500-000012000000}" name="enc" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1500-000013000000}" name="addp" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1500-000019000000}" name="armty" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1500-000016000000}" name="pryw" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1500-000017000000}" name="two" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1500-000018000000}" name="imp" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle18" displayName="Tabelle18" ref="A1:N1048576" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197">
-  <autoFilter ref="A1:N1048576">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:N1048576" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197">
+  <autoFilter ref="A1:N1048576" xr:uid="{00000000-0009-0000-0100-000012000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -17144,28 +17144,28 @@
     <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="id" dataDxfId="196"/>
-    <tableColumn id="2" name="name" dataDxfId="195"/>
-    <tableColumn id="3" name="ap" dataDxfId="194"/>
-    <tableColumn id="4" name="lang" dataDxfId="193"/>
-    <tableColumn id="5" name="literacy" dataDxfId="192"/>
-    <tableColumn id="6" name="social" dataDxfId="191"/>
-    <tableColumn id="7" name="typ_prof" dataDxfId="190"/>
-    <tableColumn id="8" name="typ_adv" dataDxfId="189"/>
-    <tableColumn id="9" name="typ_dadv" dataDxfId="188"/>
-    <tableColumn id="10" name="untyp_adv" dataDxfId="187"/>
-    <tableColumn id="11" name="untyp_dadv" dataDxfId="186"/>
-    <tableColumn id="12" name="typ_talents" dataDxfId="185"/>
-    <tableColumn id="13" name="untyp_talents" dataDxfId="184"/>
-    <tableColumn id="14" name="talents" dataDxfId="183"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="195"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ap" dataDxfId="194"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="lang" dataDxfId="193"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="literacy" dataDxfId="192"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="social" dataDxfId="191"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="typ_prof" dataDxfId="190"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="typ_adv" dataDxfId="189"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="typ_dadv" dataDxfId="188"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="untyp_adv" dataDxfId="187"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="untyp_dadv" dataDxfId="186"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="typ_talents" dataDxfId="185"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="untyp_talents" dataDxfId="184"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="talents" dataDxfId="183"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:T95" totalsRowShown="0" headerRowDxfId="182" dataDxfId="181">
-  <autoFilter ref="A1:T95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:T95" totalsRowShown="0" headerRowDxfId="182" dataDxfId="181">
+  <autoFilter ref="A1:T95" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -17188,34 +17188,34 @@
     <filterColumn colId="19" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="20">
-    <tableColumn id="1" name="id" dataDxfId="180"/>
-    <tableColumn id="2" name="name" dataDxfId="179"/>
-    <tableColumn id="3" name="ap" dataDxfId="178"/>
-    <tableColumn id="4" name="pre_req" dataDxfId="177"/>
-    <tableColumn id="5" name="req" dataDxfId="176"/>
-    <tableColumn id="6" name="sel" dataDxfId="175"/>
-    <tableColumn id="7" name="sa" dataDxfId="174"/>
-    <tableColumn id="8" name="combattech" dataDxfId="173"/>
-    <tableColumn id="9" name="talents" dataDxfId="172"/>
-    <tableColumn id="16" name="spells" dataDxfId="171"/>
-    <tableColumn id="17" name="chants" dataDxfId="170"/>
-    <tableColumn id="23" name="blessings"/>
-    <tableColumn id="10" name="typ_adv" dataDxfId="169"/>
-    <tableColumn id="11" name="typ_dadv" dataDxfId="168"/>
-    <tableColumn id="12" name="untyp_adv" dataDxfId="167"/>
-    <tableColumn id="13" name="untyp_dadv" dataDxfId="166"/>
-    <tableColumn id="14" name="vars" dataDxfId="165"/>
-    <tableColumn id="20" name="gr" dataDxfId="164"/>
-    <tableColumn id="24" name="sgr" dataDxfId="163"/>
-    <tableColumn id="21" name="src" dataDxfId="162"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="180"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="179"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ap" dataDxfId="178"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="pre_req" dataDxfId="177"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="req" dataDxfId="176"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="sel" dataDxfId="175"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="sa" dataDxfId="174"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="combattech" dataDxfId="173"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="talents" dataDxfId="172"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="spells" dataDxfId="171"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="chants" dataDxfId="170"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="blessings"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="typ_adv" dataDxfId="169"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="typ_dadv" dataDxfId="168"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="untyp_adv" dataDxfId="167"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="untyp_dadv" dataDxfId="166"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="vars" dataDxfId="165"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="gr" dataDxfId="164"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="sgr" dataDxfId="163"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="src" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
-  <autoFilter ref="A1:J1048576">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
+  <autoFilter ref="A1:J1048576" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -17228,24 +17228,24 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="159"/>
-    <tableColumn id="2" name="name" dataDxfId="158"/>
-    <tableColumn id="3" name="ap" dataDxfId="157"/>
-    <tableColumn id="4" name="pre_req" dataDxfId="156"/>
-    <tableColumn id="5" name="req" dataDxfId="155"/>
-    <tableColumn id="13" name="sel" dataDxfId="154"/>
-    <tableColumn id="6" name="sa" dataDxfId="153"/>
-    <tableColumn id="7" name="combattech" dataDxfId="152"/>
-    <tableColumn id="8" name="talents" dataDxfId="151"/>
-    <tableColumn id="9" name="spells" dataDxfId="150"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ap" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="pre_req" dataDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="req" dataDxfId="155"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="sel" dataDxfId="154"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="sa" dataDxfId="153"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="combattech" dataDxfId="152"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="talents" dataDxfId="151"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="spells" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="A1:G76" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
-  <autoFilter ref="A1:G76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle8" displayName="Tabelle8" ref="A1:G76" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+  <autoFilter ref="A1:G76" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -17255,21 +17255,21 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="147"/>
-    <tableColumn id="2" name="name" dataDxfId="146"/>
-    <tableColumn id="3" name="ap" dataDxfId="145"/>
-    <tableColumn id="4" name="tiers" dataDxfId="144"/>
-    <tableColumn id="5" name="max" dataDxfId="143"/>
-    <tableColumn id="6" name="sel" dataDxfId="142"/>
-    <tableColumn id="8" name="req" dataDxfId="141"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="ap" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="tiers" dataDxfId="144"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="max" dataDxfId="143"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="sel" dataDxfId="142"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="req" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G72" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139">
-  <autoFilter ref="A1:G72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G72" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139">
+  <autoFilter ref="A1:G72" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -17279,45 +17279,45 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="138"/>
-    <tableColumn id="2" name="name" dataDxfId="137"/>
-    <tableColumn id="3" name="ap" dataDxfId="136"/>
-    <tableColumn id="4" name="tiers" dataDxfId="135"/>
-    <tableColumn id="5" name="max" dataDxfId="134"/>
-    <tableColumn id="6" name="sel" dataDxfId="133"/>
-    <tableColumn id="8" name="req" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="id" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="name" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="ap" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="tiers" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="max" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="sel" dataDxfId="133"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="req" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle19" displayName="Tabelle19" ref="A1:C15" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
-  <autoFilter ref="A1:C15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle19" displayName="Tabelle19" ref="A1:C15" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0100-000013000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="129"/>
-    <tableColumn id="2" name="name" dataDxfId="128"/>
-    <tableColumn id="3" name="tier" dataDxfId="127"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="id" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="name" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="tier" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle1921" displayName="Tabelle1921" ref="A1:C10" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
-  <autoFilter ref="A1:C10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle1921" displayName="Tabelle1921" ref="A1:C10" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+  <autoFilter ref="A1:C10" xr:uid="{00000000-0009-0000-0100-000014000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="124"/>
-    <tableColumn id="2" name="name" dataDxfId="123"/>
-    <tableColumn id="3" name="tier" dataDxfId="122"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="tier" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17619,7 +17619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17723,7 +17723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17912,7 +17912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18045,7 +18045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -19273,7 +19273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19698,7 +19698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J234"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -25445,7 +25445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26132,7 +26132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
@@ -30637,7 +30637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30858,11 +30858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:H781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="F522" sqref="F522"/>
+    <sheetView topLeftCell="A771" workbookViewId="0">
+      <selection activeCell="F529" sqref="F529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45388,7 +45388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -46927,7 +46927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47184,7 +47184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48066,7 +48066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48298,7 +48298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48980,7 +48980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49124,7 +49124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:G466"/>
   <sheetViews>
     <sheetView topLeftCell="A447" workbookViewId="0">
@@ -57728,11 +57728,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:Y484"/>
   <sheetViews>
-    <sheetView topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="N480" sqref="N480"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="I435" sqref="I435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -67748,6 +67748,9 @@
       <c r="B404" s="2" t="s">
         <v>2423</v>
       </c>
+      <c r="E404" s="1">
+        <v>14</v>
+      </c>
       <c r="O404" s="11">
         <v>8</v>
       </c>
@@ -67759,6 +67762,9 @@
       <c r="B405" s="2" t="s">
         <v>2424</v>
       </c>
+      <c r="E405" s="1">
+        <v>24</v>
+      </c>
       <c r="O405" s="11">
         <v>1</v>
       </c>
@@ -67770,6 +67776,9 @@
       <c r="B406" s="2" t="s">
         <v>2425</v>
       </c>
+      <c r="E406" s="1">
+        <v>24</v>
+      </c>
       <c r="O406" s="11">
         <v>2</v>
       </c>
@@ -67781,6 +67790,9 @@
       <c r="B407" s="2" t="s">
         <v>2426</v>
       </c>
+      <c r="E407" s="1">
+        <v>24</v>
+      </c>
       <c r="O407" s="11">
         <v>1</v>
       </c>
@@ -67792,6 +67804,9 @@
       <c r="B408" s="2" t="s">
         <v>2427</v>
       </c>
+      <c r="E408" s="1">
+        <v>24</v>
+      </c>
       <c r="O408" s="11">
         <v>2</v>
       </c>
@@ -67867,6 +67882,9 @@
       <c r="B411" s="2" t="s">
         <v>2430</v>
       </c>
+      <c r="E411" s="1">
+        <v>14</v>
+      </c>
       <c r="O411" s="11">
         <v>18</v>
       </c>
@@ -67878,6 +67896,9 @@
       <c r="B412" s="2" t="s">
         <v>2431</v>
       </c>
+      <c r="E412" s="1">
+        <v>14</v>
+      </c>
       <c r="O412" s="11">
         <v>10</v>
       </c>
@@ -67889,6 +67910,9 @@
       <c r="B413" s="2" t="s">
         <v>2432</v>
       </c>
+      <c r="E413" s="1">
+        <v>14</v>
+      </c>
       <c r="O413" s="11">
         <v>35</v>
       </c>
@@ -67900,6 +67924,9 @@
       <c r="B414" s="2" t="s">
         <v>2434</v>
       </c>
+      <c r="E414" s="1">
+        <v>11</v>
+      </c>
       <c r="O414" s="11">
         <v>5</v>
       </c>
@@ -67917,6 +67944,9 @@
       <c r="D415" s="1">
         <v>7.5</v>
       </c>
+      <c r="E415" s="1">
+        <v>8</v>
+      </c>
       <c r="O415" s="11" t="s">
         <v>2511</v>
       </c>
@@ -67934,6 +67964,9 @@
       <c r="D416" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="E416" s="1">
+        <v>8</v>
+      </c>
       <c r="O416" s="11" t="s">
         <v>2510</v>
       </c>
@@ -67945,6 +67978,9 @@
       <c r="B417" s="2" t="s">
         <v>2437</v>
       </c>
+      <c r="E417" s="1">
+        <v>18</v>
+      </c>
       <c r="O417" s="11" t="s">
         <v>2512</v>
       </c>
@@ -67956,6 +67992,9 @@
       <c r="B418" s="2" t="s">
         <v>851</v>
       </c>
+      <c r="E418" s="1">
+        <v>24</v>
+      </c>
       <c r="O418" s="11" t="s">
         <v>2509</v>
       </c>
@@ -67967,6 +68006,9 @@
       <c r="B419" s="2" t="s">
         <v>2438</v>
       </c>
+      <c r="E419" s="1">
+        <v>24</v>
+      </c>
       <c r="O419" s="11" t="s">
         <v>2509</v>
       </c>
@@ -67978,6 +68020,9 @@
       <c r="B420" s="2" t="s">
         <v>2439</v>
       </c>
+      <c r="E420" s="1">
+        <v>8</v>
+      </c>
       <c r="O420" s="11">
         <v>2</v>
       </c>
@@ -67989,6 +68034,9 @@
       <c r="B421" s="2" t="s">
         <v>2440</v>
       </c>
+      <c r="E421" s="1">
+        <v>8</v>
+      </c>
       <c r="O421" s="11">
         <v>3</v>
       </c>
@@ -68000,6 +68048,9 @@
       <c r="B422" s="2" t="s">
         <v>2441</v>
       </c>
+      <c r="E422" s="1">
+        <v>11</v>
+      </c>
       <c r="O422" s="11">
         <v>3</v>
       </c>
@@ -68011,6 +68062,9 @@
       <c r="B423" s="2" t="s">
         <v>2442</v>
       </c>
+      <c r="E423" s="1">
+        <v>14</v>
+      </c>
       <c r="O423" s="11">
         <v>7</v>
       </c>
@@ -68022,6 +68076,9 @@
       <c r="B424" s="2" t="s">
         <v>2443</v>
       </c>
+      <c r="E424" s="1">
+        <v>17</v>
+      </c>
       <c r="O424" s="11">
         <v>3</v>
       </c>
@@ -68033,6 +68090,9 @@
       <c r="B425" s="2" t="s">
         <v>2444</v>
       </c>
+      <c r="E425" s="1">
+        <v>6</v>
+      </c>
       <c r="O425" s="11">
         <v>6</v>
       </c>
@@ -68044,6 +68104,9 @@
       <c r="B426" s="2" t="s">
         <v>2445</v>
       </c>
+      <c r="E426" s="1">
+        <v>6</v>
+      </c>
       <c r="O426" s="11">
         <v>6</v>
       </c>
@@ -68055,6 +68118,9 @@
       <c r="B427" s="2" t="s">
         <v>2446</v>
       </c>
+      <c r="E427" s="1">
+        <v>6</v>
+      </c>
       <c r="O427" s="11">
         <v>6</v>
       </c>
@@ -68066,6 +68132,9 @@
       <c r="B428" s="2" t="s">
         <v>2447</v>
       </c>
+      <c r="E428" s="1">
+        <v>6</v>
+      </c>
       <c r="O428" s="11">
         <v>6</v>
       </c>
@@ -68077,6 +68146,9 @@
       <c r="B429" s="2" t="s">
         <v>2514</v>
       </c>
+      <c r="E429" s="1">
+        <v>6</v>
+      </c>
       <c r="O429" s="11">
         <v>6</v>
       </c>
@@ -68088,6 +68160,9 @@
       <c r="B430" s="2" t="s">
         <v>2448</v>
       </c>
+      <c r="E430" s="1">
+        <v>17</v>
+      </c>
       <c r="O430" s="11">
         <v>2</v>
       </c>
@@ -68099,6 +68174,9 @@
       <c r="B431" s="2" t="s">
         <v>2449</v>
       </c>
+      <c r="E431" s="1">
+        <v>17</v>
+      </c>
       <c r="O431" s="11">
         <v>3</v>
       </c>
@@ -68110,6 +68188,9 @@
       <c r="B432" s="2" t="s">
         <v>2450</v>
       </c>
+      <c r="E432" s="1">
+        <v>18</v>
+      </c>
       <c r="O432" s="11">
         <v>15</v>
       </c>
@@ -68121,6 +68202,9 @@
       <c r="B433" s="2" t="s">
         <v>2451</v>
       </c>
+      <c r="E433" s="1">
+        <v>24</v>
+      </c>
       <c r="O433" s="11">
         <v>4</v>
       </c>
@@ -68132,6 +68216,9 @@
       <c r="B434" s="2" t="s">
         <v>2452</v>
       </c>
+      <c r="E434" s="1">
+        <v>18</v>
+      </c>
       <c r="O434" s="11">
         <v>15</v>
       </c>
@@ -68143,6 +68230,9 @@
       <c r="B435" s="2" t="s">
         <v>2453</v>
       </c>
+      <c r="E435" s="1">
+        <v>11</v>
+      </c>
       <c r="O435" s="11">
         <v>100</v>
       </c>
@@ -68153,6 +68243,9 @@
       </c>
       <c r="B436" s="2" t="s">
         <v>2454</v>
+      </c>
+      <c r="E436" s="1">
+        <v>7</v>
       </c>
       <c r="O436" s="11">
         <v>4</v>
@@ -70100,7 +70193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -70930,7 +71023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -72129,7 +72222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -76965,7 +77058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -80183,7 +80276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -80247,7 +80340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -81580,7 +81673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">

--- a/src/data/TDE5.xlsx
+++ b/src/data/TDE5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="7583" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="30" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6587" uniqueCount="4650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6821" uniqueCount="4651">
   <si>
     <t>id</t>
   </si>
@@ -13998,6 +13998,9 @@
   </si>
   <si>
     <t>3?4&amp;9?4&amp;13?2</t>
+  </si>
+  <si>
+    <t>US25101&amp;US25004</t>
   </si>
 </sst>
 </file>
@@ -14180,7 +14183,10 @@
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="215">
+  <dxfs count="216">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -15382,7 +15388,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Table Style 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="214"/>
+      <tableStyleElement type="headerRow" dxfId="215"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -16759,7 +16765,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="214" dataDxfId="213">
   <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-000011000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -16768,15 +16774,15 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="211"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="210"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="211"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:F60" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:F60" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
   <autoFilter ref="A1:F60" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -16789,20 +16795,20 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="id" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="name" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="check" dataDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="skt" dataDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="be" dataDxfId="115"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="gr" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="id" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="name" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="check" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="skt" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="be" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="gr" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:J234" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
-  <autoFilter ref="A1:J234" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:K234" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+  <autoFilter ref="A1:K234" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16813,25 +16819,27 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
     <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="id" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="name" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="check" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="mod" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="skt" dataDxfId="107"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="trad" dataDxfId="106"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="subtrad" dataDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="merk" dataDxfId="104"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="gr" dataDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="req" dataDxfId="102"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="id" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="name" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="check" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="mod" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="skt" dataDxfId="108"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="trad" dataDxfId="107"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="subtrad" dataDxfId="106"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="merk" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="gr" dataDxfId="104"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="req" dataDxfId="103"/>
+    <tableColumn id="11" xr3:uid="{6093D09C-4084-4E7B-85B0-373570094BC3}" name="src" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table14" displayName="Table14" ref="A1:E44" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table14" displayName="Table14" ref="A1:E44" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="A1:E44" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -16840,18 +16848,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="trad" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="merk" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="req" dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="id" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="name" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="trad" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="merk" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="req" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:H193" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:H193" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:H193" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -16863,21 +16871,21 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="check" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="mod" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="skt" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="trad" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="aspc" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="gr" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="id" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="name" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="check" dataDxfId="91"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="mod" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="skt" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="trad" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="aspc" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="gr" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table1417" displayName="Table1417" ref="A1:E13" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table1417" displayName="Table1417" ref="A1:E13" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000010000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -16886,18 +16894,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="trad" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="aspc" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="req" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="name" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="trad" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="aspc" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="req" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:H781" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:H781" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A1:H781" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -16909,21 +16917,21 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="ap" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="tiers" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="max" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="sel" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="req" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0E00-000009000000}" name="gr" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="name" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="ap" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="tiers" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="max" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="sel" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="req" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0E00-000009000000}" name="gr" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table10" displayName="Table10" ref="A1:E111" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table10" displayName="Table10" ref="A1:E111" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:E111" xr:uid="{00000000-0009-0000-0100-00000A000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -16932,51 +16940,51 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="req" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="cost" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="sec" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="name" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="req" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="cost" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="sec" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table12" displayName="Table12" ref="A1:D76" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A1:D76" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="cont" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="ext" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="name" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="cont" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="ext" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle19212324" displayName="Tabelle19212324" ref="A1:C19" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle19212324" displayName="Tabelle19212324" ref="A1:C19" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:C19" xr:uid="{00000000-0009-0000-0100-000017000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="talent" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="id" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="name" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="talent" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table11" displayName="Table11" ref="A1:F36" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table11" displayName="Table11" ref="A1:F36" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A1:F36" xr:uid="{00000000-0009-0000-0100-00000B000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -16986,19 +16994,19 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="id" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="name" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="languages" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="cost" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="cont" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="ext" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="id" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="name" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="languages" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="cost" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="cont" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="ext" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:I8" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:I8" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209">
   <autoFilter ref="A1:I8" xr:uid="{00000000-0009-0000-0100-00000D000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17011,22 +17019,22 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="207"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="206"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ap" dataDxfId="205"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="maxAttributeValue" dataDxfId="204"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="maxSkillRating" dataDxfId="203"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="maxCombatTechniqueRating" dataDxfId="202"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="maxTotalAttributeValues" dataDxfId="201"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="maxSpellsLiturgies" dataDxfId="200"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="maxUnfamiliarSpells" dataDxfId="199"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="208"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="207"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ap" dataDxfId="206"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="maxAttributeValue" dataDxfId="205"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="maxSkillRating" dataDxfId="204"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="maxCombatTechniqueRating" dataDxfId="203"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="maxTotalAttributeValues" dataDxfId="202"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="maxSpellsLiturgies" dataDxfId="201"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="maxUnfamiliarSpells" dataDxfId="200"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabelle192123" displayName="Tabelle192123" ref="A1:E7" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabelle192123" displayName="Tabelle192123" ref="A1:E7" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000016000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17035,18 +17043,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="id" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="name" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="cost" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="gr" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="tier" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="name" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="cost" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="gr" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="tier" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table15" displayName="Table15" ref="A1:F466" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" dataCellStyle="Excel Built-in Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table15" displayName="Table15" ref="A1:F466" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" dataCellStyle="Excel Built-in Normal">
   <autoFilter ref="A1:F466" xr:uid="{00000000-0009-0000-0100-00000F000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17056,56 +17064,56 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="name" dataDxfId="31" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="target" dataDxfId="30" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="tier" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="req" dataDxfId="28" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="cost" dataDxfId="27" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="id" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="name" dataDxfId="32" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="target" dataDxfId="31" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="tier" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="req" dataDxfId="29" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="cost" dataDxfId="28" dataCellStyle="Excel Built-in Normal"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:Y484" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Tabelle9" displayName="Tabelle9" ref="A1:Y484" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:Y484" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <sortState ref="A2:Y484">
     <sortCondition ref="A1:A484"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="id" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="name" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="price" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="weight" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="gr" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="ct" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="ddn" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1500-000014000000}" name="dds" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="df" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1500-000009000000}" name="db" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1500-00000A000000}" name="at" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1500-00000B000000}" name="pa" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1500-00000C000000}" name="re" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1500-00000D000000}" name="length" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1500-00000E000000}" name="stp" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1500-000015000000}" name="range" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1500-00000F000000}" name="rt" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1500-000010000000}" name="am" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1500-000011000000}" name="pro" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1500-000012000000}" name="enc" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1500-000013000000}" name="addp" dataDxfId="4"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1500-000019000000}" name="armty" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1500-000016000000}" name="pryw" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1500-000017000000}" name="two" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1500-000018000000}" name="imp" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="id" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="name" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="price" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="weight" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="gr" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="ct" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="ddn" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1500-000014000000}" name="dds" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="df" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1500-000009000000}" name="db" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1500-00000A000000}" name="at" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1500-00000B000000}" name="pa" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1500-00000C000000}" name="re" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1500-00000D000000}" name="length" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1500-00000E000000}" name="stp" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1500-000015000000}" name="range" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1500-00000F000000}" name="rt" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1500-000010000000}" name="am" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1500-000011000000}" name="pro" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1500-000012000000}" name="enc" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1500-000013000000}" name="addp" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1500-000019000000}" name="armty" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1500-000016000000}" name="pryw" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1500-000017000000}" name="two" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1500-000018000000}" name="imp" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:N1048576" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle18" displayName="Tabelle18" ref="A1:N1048576" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198">
   <autoFilter ref="A1:N1048576" xr:uid="{00000000-0009-0000-0100-000012000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17123,27 +17131,27 @@
     <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="196"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="195"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ap" dataDxfId="194"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="lang" dataDxfId="193"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="literacy" dataDxfId="192"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="social" dataDxfId="191"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="typ_prof" dataDxfId="190"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="typ_adv" dataDxfId="189"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="typ_dadv" dataDxfId="188"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="untyp_adv" dataDxfId="187"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="untyp_dadv" dataDxfId="186"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="typ_talents" dataDxfId="185"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="untyp_talents" dataDxfId="184"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="talents" dataDxfId="183"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="197"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="196"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ap" dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="lang" dataDxfId="194"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="literacy" dataDxfId="193"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="social" dataDxfId="192"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="typ_prof" dataDxfId="191"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="typ_adv" dataDxfId="190"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="typ_dadv" dataDxfId="189"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="untyp_adv" dataDxfId="188"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="untyp_dadv" dataDxfId="187"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="typ_talents" dataDxfId="186"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="untyp_talents" dataDxfId="185"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="talents" dataDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:T95" totalsRowShown="0" headerRowDxfId="182" dataDxfId="181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:T95" totalsRowShown="0" headerRowDxfId="183" dataDxfId="182">
   <autoFilter ref="A1:T95" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17167,33 +17175,33 @@
     <filterColumn colId="19" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="180"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="179"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ap" dataDxfId="178"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="pre_req" dataDxfId="177"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="req" dataDxfId="176"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="sel" dataDxfId="175"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="sa" dataDxfId="174"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="combattech" dataDxfId="173"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="talents" dataDxfId="172"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="spells" dataDxfId="171"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="chants" dataDxfId="170"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="181"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="180"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ap" dataDxfId="179"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="pre_req" dataDxfId="178"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="req" dataDxfId="177"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="sel" dataDxfId="176"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="sa" dataDxfId="175"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="combattech" dataDxfId="174"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="talents" dataDxfId="173"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="spells" dataDxfId="172"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="chants" dataDxfId="171"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="blessings"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="typ_adv" dataDxfId="169"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="typ_dadv" dataDxfId="168"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="untyp_adv" dataDxfId="167"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="untyp_dadv" dataDxfId="166"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="vars" dataDxfId="165"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="gr" dataDxfId="164"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="sgr" dataDxfId="163"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="src" dataDxfId="162"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="typ_adv" dataDxfId="170"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="typ_dadv" dataDxfId="169"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="untyp_adv" dataDxfId="168"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="untyp_dadv" dataDxfId="167"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="vars" dataDxfId="166"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="gr" dataDxfId="165"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="sgr" dataDxfId="164"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="src" dataDxfId="163"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="162" dataDxfId="161">
   <autoFilter ref="A1:J1048576" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17207,23 +17215,23 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="159"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ap" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="pre_req" dataDxfId="156"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="req" dataDxfId="155"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="sel" dataDxfId="154"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="sa" dataDxfId="153"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="combattech" dataDxfId="152"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="talents" dataDxfId="151"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="spells" dataDxfId="150"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="159"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ap" dataDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="pre_req" dataDxfId="157"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="req" dataDxfId="156"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="sel" dataDxfId="155"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="sa" dataDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="combattech" dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="talents" dataDxfId="152"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="spells" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle8" displayName="Tabelle8" ref="A1:G76" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle8" displayName="Tabelle8" ref="A1:G76" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149">
   <autoFilter ref="A1:G76" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17234,20 +17242,20 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="ap" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="tiers" dataDxfId="144"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="max" dataDxfId="143"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="sel" dataDxfId="142"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="req" dataDxfId="141"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="ap" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="tiers" dataDxfId="145"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="max" dataDxfId="144"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="sel" dataDxfId="143"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="req" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G72" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:G72" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
   <autoFilter ref="A1:G72" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17258,45 +17266,45 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="id" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="name" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="ap" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="tiers" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="max" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="sel" dataDxfId="133"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="req" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="id" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="name" dataDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="ap" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="tiers" dataDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="max" dataDxfId="135"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="sel" dataDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="req" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle19" displayName="Tabelle19" ref="A1:C15" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabelle19" displayName="Tabelle19" ref="A1:C15" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
   <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0100-000013000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="id" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="name" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="tier" dataDxfId="127"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="id" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="name" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="tier" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle1921" displayName="Tabelle1921" ref="A1:C10" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabelle1921" displayName="Tabelle1921" ref="A1:C10" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
   <autoFilter ref="A1:C10" xr:uid="{00000000-0009-0000-0100-000014000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="tier" dataDxfId="122"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="name" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="tier" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17601,8 +17609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19678,10 +19686,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J234"/>
+  <dimension ref="A1:K234"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19695,10 +19703,11 @@
     <col min="7" max="7" width="8.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.796875" style="1" customWidth="1"/>
     <col min="9" max="10" width="4.19921875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="1"/>
+    <col min="11" max="11" width="7.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -19729,8 +19738,11 @@
       <c r="J1" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K1" s="5" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -19752,8 +19764,11 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K2" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -19775,8 +19790,11 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K3" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -19798,8 +19816,11 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K4" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -19821,8 +19842,11 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K5" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -19844,8 +19868,11 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K6" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -19870,8 +19897,11 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K7" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -19896,8 +19926,11 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K8" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -19922,8 +19955,11 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K9" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -19948,8 +19984,11 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K10" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -19971,8 +20010,11 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K11" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -19994,8 +20036,11 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K12" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -20017,8 +20062,11 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K13" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -20040,8 +20088,11 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K14" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -20066,8 +20117,11 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K15" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -20089,8 +20143,11 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K16" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -20115,8 +20172,11 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K17" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -20138,8 +20198,11 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K18" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -20161,8 +20224,11 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K19" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -20184,8 +20250,11 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K20" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -20210,8 +20279,11 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K21" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -20233,8 +20305,11 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K22" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -20256,8 +20331,11 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K23" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -20279,8 +20357,11 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K24" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -20302,8 +20383,11 @@
       <c r="I25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K25" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -20325,8 +20409,11 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K26" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -20348,8 +20435,11 @@
       <c r="I27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K27" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -20371,8 +20461,11 @@
       <c r="I28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K28" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -20394,8 +20487,11 @@
       <c r="I29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K29" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -20417,8 +20513,11 @@
       <c r="I30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K30" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -20440,8 +20539,11 @@
       <c r="I31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K31" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -20466,8 +20568,11 @@
       <c r="I32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K32" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -20489,8 +20594,11 @@
       <c r="I33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K33" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -20512,8 +20620,11 @@
       <c r="I34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K34" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -20535,8 +20646,11 @@
       <c r="I35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K35" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -20561,8 +20675,11 @@
       <c r="I36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K36" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -20587,8 +20704,11 @@
       <c r="I37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K37" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -20613,8 +20733,11 @@
       <c r="I38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K38" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -20636,8 +20759,11 @@
       <c r="I39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K39" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -20659,8 +20785,11 @@
       <c r="I40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K40" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -20685,8 +20814,11 @@
       <c r="I41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K41" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -20708,8 +20840,11 @@
       <c r="I42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K42" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -20731,8 +20866,11 @@
       <c r="I43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K43" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -20754,8 +20892,11 @@
       <c r="I44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K44" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -20777,8 +20918,11 @@
       <c r="I45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K45" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -20800,8 +20944,11 @@
       <c r="I46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K46" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -20823,8 +20970,11 @@
       <c r="I47" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K47" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -20849,8 +20999,11 @@
       <c r="J48" s="1" t="s">
         <v>3487</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K48" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -20875,8 +21028,11 @@
       <c r="J49" s="1" t="s">
         <v>3485</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K49" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -20901,8 +21057,11 @@
       <c r="J50" s="1" t="s">
         <v>3488</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K50" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -20927,8 +21086,11 @@
       <c r="J51" s="1" t="s">
         <v>3486</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K51" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -20950,8 +21112,11 @@
       <c r="I52" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K52" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -20976,8 +21141,11 @@
       <c r="I53" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K53" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -21002,8 +21170,11 @@
       <c r="I54" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K54" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -21025,8 +21196,11 @@
       <c r="I55" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K55" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -21051,8 +21225,11 @@
       <c r="I56" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K56" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -21077,8 +21254,11 @@
       <c r="I57" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K57" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -21103,8 +21283,11 @@
       <c r="I58" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K58" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -21129,8 +21312,11 @@
       <c r="I59" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K59" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -21155,8 +21341,11 @@
       <c r="I60" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K60" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -21181,8 +21370,11 @@
       <c r="I61" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K61" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -21207,8 +21399,11 @@
       <c r="I62" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K62" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -21230,8 +21425,11 @@
       <c r="I63" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K63" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -21253,8 +21451,11 @@
       <c r="I64" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K64" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -21276,8 +21477,11 @@
       <c r="I65" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K65" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -21299,8 +21503,11 @@
       <c r="I66" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K66" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -21322,8 +21529,11 @@
       <c r="I67" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K67" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -21345,8 +21555,11 @@
       <c r="I68" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K68" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -21368,8 +21581,11 @@
       <c r="I69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K69" s="1" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -21391,8 +21607,11 @@
       <c r="I70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K70" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -21414,8 +21633,11 @@
       <c r="I71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K71" s="1" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -21437,8 +21659,11 @@
       <c r="I72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K72" s="1" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -21460,8 +21685,11 @@
       <c r="I73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K73" s="1" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -21483,8 +21711,11 @@
       <c r="I74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K74" s="1" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -21506,8 +21737,11 @@
       <c r="I75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K75" s="1" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -21529,8 +21763,11 @@
       <c r="I76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K76" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -21552,8 +21789,11 @@
       <c r="I77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K77" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -21575,8 +21815,11 @@
       <c r="I78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K78" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -21598,8 +21841,11 @@
       <c r="I79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K79" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -21621,8 +21867,11 @@
       <c r="I80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K80" s="1" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -21644,8 +21893,11 @@
       <c r="I81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K81" s="1" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -21667,8 +21919,11 @@
       <c r="I82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K82" s="1" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -21690,8 +21945,11 @@
       <c r="I83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K83" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -21713,8 +21971,11 @@
       <c r="I84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K84" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -21736,8 +21997,11 @@
       <c r="I85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K85" s="1" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -21759,8 +22023,11 @@
       <c r="I86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K86" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -21782,8 +22049,11 @@
       <c r="I87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K87" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -21805,8 +22075,11 @@
       <c r="I88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K88" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -21828,8 +22101,11 @@
       <c r="I89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K89" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -21851,8 +22127,11 @@
       <c r="I90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K90" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -21874,8 +22153,11 @@
       <c r="I91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K91" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -21897,8 +22179,11 @@
       <c r="I92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K92" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -21920,8 +22205,11 @@
       <c r="I93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K93" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -21943,8 +22231,11 @@
       <c r="I94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K94" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -21966,8 +22257,11 @@
       <c r="I95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K95" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -21989,8 +22283,11 @@
       <c r="I96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K96" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -22012,8 +22309,11 @@
       <c r="I97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K97" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -22035,8 +22335,11 @@
       <c r="I98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K98" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -22058,8 +22361,11 @@
       <c r="I99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K99" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -22081,8 +22387,11 @@
       <c r="I100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K100" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -22104,8 +22413,11 @@
       <c r="I101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K101" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -22127,8 +22439,11 @@
       <c r="I102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K102" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -22150,8 +22465,11 @@
       <c r="I103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K103" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -22173,8 +22491,11 @@
       <c r="I104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K104" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -22196,8 +22517,11 @@
       <c r="I105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K105" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -22219,8 +22543,11 @@
       <c r="I106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K106" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -22242,8 +22569,11 @@
       <c r="I107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K107" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -22265,8 +22595,11 @@
       <c r="I108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K108" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -22288,8 +22621,11 @@
       <c r="I109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K109" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -22311,8 +22647,11 @@
       <c r="I110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K110" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -22334,8 +22673,11 @@
       <c r="I111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K111" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -22357,8 +22699,11 @@
       <c r="I112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K112" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -22380,8 +22725,11 @@
       <c r="I113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K113" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -22403,8 +22751,11 @@
       <c r="I114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K114" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -22426,8 +22777,11 @@
       <c r="I115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K115" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -22449,8 +22803,11 @@
       <c r="I116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K116" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -22472,8 +22829,11 @@
       <c r="I117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K117" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -22495,8 +22855,11 @@
       <c r="I118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K118" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -22518,8 +22881,11 @@
       <c r="I119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K119" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -22541,8 +22907,11 @@
       <c r="I120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K120" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -22564,8 +22933,11 @@
       <c r="I121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K121" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -22587,8 +22959,11 @@
       <c r="I122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K122" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -22610,8 +22985,11 @@
       <c r="I123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K123" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -22633,8 +23011,11 @@
       <c r="I124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K124" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -22656,8 +23037,11 @@
       <c r="I125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K125" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -22679,8 +23063,11 @@
       <c r="I126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K126" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -22702,8 +23089,11 @@
       <c r="I127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K127" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -22725,8 +23115,11 @@
       <c r="I128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K128" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -22748,8 +23141,11 @@
       <c r="I129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K129" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -22771,8 +23167,11 @@
       <c r="I130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K130" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -22794,8 +23193,11 @@
       <c r="I131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K131" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -22817,8 +23219,11 @@
       <c r="I132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K132" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -22840,8 +23245,11 @@
       <c r="I133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K133" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -22863,8 +23271,11 @@
       <c r="I134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K134" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -22886,8 +23297,11 @@
       <c r="I135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K135" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -22909,8 +23323,11 @@
       <c r="I136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K136" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -22932,8 +23349,11 @@
       <c r="I137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K137" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -22955,8 +23375,11 @@
       <c r="I138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K138" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -22978,8 +23401,11 @@
       <c r="I139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K139" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -23001,8 +23427,11 @@
       <c r="I140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K140" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -23024,8 +23453,11 @@
       <c r="I141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K141" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -23047,8 +23479,11 @@
       <c r="I142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K142" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -23070,8 +23505,11 @@
       <c r="I143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K143" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -23093,8 +23531,11 @@
       <c r="I144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K144" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -23116,8 +23557,11 @@
       <c r="I145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K145" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -23139,8 +23583,11 @@
       <c r="I146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K146" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -23162,8 +23609,11 @@
       <c r="I147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K147" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -23185,8 +23635,11 @@
       <c r="I148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K148" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -23208,8 +23661,11 @@
       <c r="I149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K149" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -23231,8 +23687,11 @@
       <c r="I150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K150" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -23254,8 +23713,11 @@
       <c r="I151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K151" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -23277,8 +23739,11 @@
       <c r="I152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K152" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -23300,8 +23765,11 @@
       <c r="I153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K153" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -23323,8 +23791,11 @@
       <c r="I154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K154" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -23346,8 +23817,11 @@
       <c r="I155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K155" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -23369,8 +23843,11 @@
       <c r="I156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K156" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -23392,8 +23869,11 @@
       <c r="I157" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K157" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -23415,8 +23895,11 @@
       <c r="I158" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K158" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -23438,8 +23921,11 @@
       <c r="I159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K159" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -23461,8 +23947,11 @@
       <c r="I160" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K160" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -23484,8 +23973,11 @@
       <c r="I161" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K161" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -23507,8 +23999,11 @@
       <c r="I162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K162" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -23530,8 +24025,11 @@
       <c r="I163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K163" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -23553,8 +24051,11 @@
       <c r="I164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K164" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -23576,8 +24077,11 @@
       <c r="I165" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K165" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -23599,8 +24103,11 @@
       <c r="I166" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K166" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -23622,8 +24129,11 @@
       <c r="I167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K167" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -23645,8 +24155,11 @@
       <c r="I168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K168" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -23668,8 +24181,11 @@
       <c r="I169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K169" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -23691,8 +24207,11 @@
       <c r="I170" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K170" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -23714,8 +24233,11 @@
       <c r="I171" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K171" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -23737,8 +24259,11 @@
       <c r="I172" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K172" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -23760,8 +24285,11 @@
       <c r="I173" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K173" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -23783,8 +24311,11 @@
       <c r="I174" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K174" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -23806,8 +24337,11 @@
       <c r="I175" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K175" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -23829,8 +24363,11 @@
       <c r="I176" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K176" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -23852,8 +24389,11 @@
       <c r="I177" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K177" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -23875,8 +24415,11 @@
       <c r="I178" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K178" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -23898,8 +24441,11 @@
       <c r="I179" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K179" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -23921,8 +24467,11 @@
       <c r="I180" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K180" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -23944,8 +24493,11 @@
       <c r="I181" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K181" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -23967,8 +24519,11 @@
       <c r="I182" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K182" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -23990,8 +24545,11 @@
       <c r="I183" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K183" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -24013,8 +24571,11 @@
       <c r="I184" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K184" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A185" s="23">
         <v>184</v>
       </c>
@@ -24041,8 +24602,11 @@
         <v>5</v>
       </c>
       <c r="J185" s="23"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K185" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A186" s="23">
         <v>185</v>
       </c>
@@ -24069,8 +24633,11 @@
         <v>5</v>
       </c>
       <c r="J186" s="23"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K186" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A187" s="23">
         <v>186</v>
       </c>
@@ -24097,8 +24664,11 @@
         <v>5</v>
       </c>
       <c r="J187" s="23"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K187" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A188" s="23">
         <v>187</v>
       </c>
@@ -24125,8 +24695,11 @@
         <v>5</v>
       </c>
       <c r="J188" s="23"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K188" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A189" s="23">
         <v>188</v>
       </c>
@@ -24153,8 +24726,11 @@
         <v>5</v>
       </c>
       <c r="J189" s="23"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K189" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A190" s="23">
         <v>189</v>
       </c>
@@ -24181,8 +24757,11 @@
         <v>5</v>
       </c>
       <c r="J190" s="23"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K190" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A191" s="23">
         <v>190</v>
       </c>
@@ -24209,8 +24788,11 @@
         <v>5</v>
       </c>
       <c r="J191" s="23"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K191" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A192" s="23">
         <v>191</v>
       </c>
@@ -24237,8 +24819,11 @@
         <v>5</v>
       </c>
       <c r="J192" s="23"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K192" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193" s="23">
         <v>192</v>
       </c>
@@ -24265,8 +24850,11 @@
         <v>5</v>
       </c>
       <c r="J193" s="23"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K193" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194" s="23">
         <v>193</v>
       </c>
@@ -24293,8 +24881,11 @@
         <v>5</v>
       </c>
       <c r="J194" s="23"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K194" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195" s="23">
         <v>194</v>
       </c>
@@ -24321,8 +24912,11 @@
         <v>5</v>
       </c>
       <c r="J195" s="23"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K195" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196" s="23">
         <v>195</v>
       </c>
@@ -24349,8 +24943,11 @@
         <v>5</v>
       </c>
       <c r="J196" s="23"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K196" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197" s="23">
         <v>196</v>
       </c>
@@ -24377,8 +24974,11 @@
         <v>5</v>
       </c>
       <c r="J197" s="23"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K197" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198" s="23">
         <v>197</v>
       </c>
@@ -24405,8 +25005,11 @@
         <v>5</v>
       </c>
       <c r="J198" s="23"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K198" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199" s="23">
         <v>198</v>
       </c>
@@ -24433,8 +25036,11 @@
         <v>5</v>
       </c>
       <c r="J199" s="23"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K199" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200" s="23">
         <v>199</v>
       </c>
@@ -24461,8 +25067,11 @@
         <v>5</v>
       </c>
       <c r="J200" s="23"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K200" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201" s="23">
         <v>200</v>
       </c>
@@ -24489,8 +25098,11 @@
         <v>5</v>
       </c>
       <c r="J201" s="23"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K201" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202" s="23">
         <v>201</v>
       </c>
@@ -24517,8 +25129,11 @@
         <v>5</v>
       </c>
       <c r="J202" s="23"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K202" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203" s="23">
         <v>202</v>
       </c>
@@ -24545,8 +25160,11 @@
         <v>5</v>
       </c>
       <c r="J203" s="23"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K203" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204" s="23">
         <v>203</v>
       </c>
@@ -24573,8 +25191,11 @@
         <v>5</v>
       </c>
       <c r="J204" s="23"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K204" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205" s="23">
         <v>204</v>
       </c>
@@ -24601,8 +25222,11 @@
         <v>5</v>
       </c>
       <c r="J205" s="23"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K205" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A206" s="23">
         <v>205</v>
       </c>
@@ -24629,8 +25253,11 @@
         <v>5</v>
       </c>
       <c r="J206" s="23"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K206" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207" s="23">
         <v>206</v>
       </c>
@@ -24657,8 +25284,11 @@
         <v>5</v>
       </c>
       <c r="J207" s="23"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K207" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208" s="23">
         <v>207</v>
       </c>
@@ -24685,8 +25315,11 @@
         <v>5</v>
       </c>
       <c r="J208" s="23"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K208" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A209" s="23">
         <v>208</v>
       </c>
@@ -24713,8 +25346,11 @@
         <v>6</v>
       </c>
       <c r="J209" s="23"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K209" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A210" s="23">
         <v>209</v>
       </c>
@@ -24741,8 +25377,11 @@
         <v>6</v>
       </c>
       <c r="J210" s="23"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K210" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A211" s="23">
         <v>210</v>
       </c>
@@ -24769,8 +25408,11 @@
         <v>6</v>
       </c>
       <c r="J211" s="23"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K211" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A212" s="23">
         <v>211</v>
       </c>
@@ -24797,8 +25439,11 @@
         <v>6</v>
       </c>
       <c r="J212" s="23"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K212" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A213" s="23">
         <v>212</v>
       </c>
@@ -24825,8 +25470,11 @@
         <v>6</v>
       </c>
       <c r="J213" s="23"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K213" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A214" s="23">
         <v>213</v>
       </c>
@@ -24853,8 +25501,11 @@
         <v>6</v>
       </c>
       <c r="J214" s="23"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K214" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A215" s="23">
         <v>214</v>
       </c>
@@ -24881,8 +25532,11 @@
         <v>6</v>
       </c>
       <c r="J215" s="23"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K215" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A216" s="23">
         <v>215</v>
       </c>
@@ -24909,8 +25563,11 @@
         <v>6</v>
       </c>
       <c r="J216" s="23"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K216" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A217" s="23">
         <v>216</v>
       </c>
@@ -24937,8 +25594,11 @@
         <v>6</v>
       </c>
       <c r="J217" s="23"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K217" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A218" s="23">
         <v>217</v>
       </c>
@@ -24965,8 +25625,11 @@
         <v>6</v>
       </c>
       <c r="J218" s="23"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K218" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A219" s="23">
         <v>218</v>
       </c>
@@ -24993,8 +25656,11 @@
         <v>6</v>
       </c>
       <c r="J219" s="23"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K219" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A220" s="23">
         <v>219</v>
       </c>
@@ -25021,8 +25687,11 @@
         <v>6</v>
       </c>
       <c r="J220" s="23"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K220" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A221" s="23">
         <v>220</v>
       </c>
@@ -25049,8 +25718,11 @@
         <v>6</v>
       </c>
       <c r="J221" s="23"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K221" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A222" s="23">
         <v>221</v>
       </c>
@@ -25077,8 +25749,11 @@
         <v>6</v>
       </c>
       <c r="J222" s="23"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K222" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A223" s="23">
         <v>222</v>
       </c>
@@ -25105,8 +25780,11 @@
         <v>6</v>
       </c>
       <c r="J223" s="23"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K223" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A224" s="23">
         <v>223</v>
       </c>
@@ -25133,8 +25811,11 @@
         <v>6</v>
       </c>
       <c r="J224" s="23"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K224" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A225" s="23">
         <v>224</v>
       </c>
@@ -25161,8 +25842,11 @@
         <v>6</v>
       </c>
       <c r="J225" s="23"/>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K225" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A226" s="23">
         <v>225</v>
       </c>
@@ -25189,8 +25873,11 @@
         <v>6</v>
       </c>
       <c r="J226" s="23"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K226" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A227" s="23">
         <v>226</v>
       </c>
@@ -25217,8 +25904,11 @@
         <v>6</v>
       </c>
       <c r="J227" s="23"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K227" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A228" s="23">
         <v>227</v>
       </c>
@@ -25245,8 +25935,11 @@
         <v>6</v>
       </c>
       <c r="J228" s="23"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K228" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A229" s="23">
         <v>228</v>
       </c>
@@ -25273,8 +25966,11 @@
         <v>6</v>
       </c>
       <c r="J229" s="23"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K229" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A230" s="23">
         <v>229</v>
       </c>
@@ -25301,8 +25997,11 @@
         <v>6</v>
       </c>
       <c r="J230" s="23"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K230" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A231" s="23">
         <v>230</v>
       </c>
@@ -25329,8 +26028,11 @@
         <v>6</v>
       </c>
       <c r="J231" s="23"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K231" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A232" s="23">
         <v>231</v>
       </c>
@@ -25357,8 +26059,11 @@
         <v>6</v>
       </c>
       <c r="J232" s="23"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K232" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A233" s="23">
         <v>232</v>
       </c>
@@ -25385,8 +26090,11 @@
         <v>6</v>
       </c>
       <c r="J233" s="23"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K233" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A234" s="23">
         <v>233</v>
       </c>
@@ -25413,6 +26121,9 @@
         <v>6</v>
       </c>
       <c r="J234" s="23"/>
+      <c r="K234" s="1" t="s">
+        <v>2532</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -72204,8 +72915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
